--- a/report.xlsx
+++ b/report.xlsx
@@ -442,7 +442,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>0.3829489769414067</v>
+        <v>0.3621614669973496</v>
       </c>
       <c r="E2" s="2">
         <v>1880.435550857422</v>
@@ -473,7 +473,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2">
-        <v>0.3901396369328722</v>
+        <v>0.3790125399973476</v>
       </c>
       <c r="E3" s="2">
         <v>2218.500638371392</v>
@@ -504,7 +504,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2">
-        <v>0.3822877960046753</v>
+        <v>0.3580051649914822</v>
       </c>
       <c r="E4" s="2">
         <v>2215.856901222008</v>
@@ -535,7 +535,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="2">
-        <v>0.3826752019813284</v>
+        <v>0.3746457380038919</v>
       </c>
       <c r="E5" s="2">
         <v>2384.317398222062</v>
@@ -559,7 +559,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="2">
-        <v>0.3955587178934366</v>
+        <v>0.3667742489924422</v>
       </c>
       <c r="E6" s="2">
         <v>2482.994690262762</v>
@@ -590,7 +590,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="2">
-        <v>0.3885117899626493</v>
+        <v>0.3668949340062682</v>
       </c>
       <c r="E7" s="2">
         <v>1854.185027252189</v>
@@ -621,7 +621,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="2">
-        <v>0.381315054022707</v>
+        <v>0.3674968920095125</v>
       </c>
       <c r="E8" s="2">
         <v>1654.772496609385</v>
@@ -652,7 +652,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="2">
-        <v>0.4013581499457359</v>
+        <v>0.3655368080071639</v>
       </c>
       <c r="E9" s="2">
         <v>2566.45271397831</v>
@@ -676,7 +676,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="2">
-        <v>0.3826477540424094</v>
+        <v>0.3652620530046988</v>
       </c>
       <c r="E10" s="2">
         <v>1824.123270611745</v>
@@ -700,7 +700,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="2">
-        <v>0.3850504140136763</v>
+        <v>0.3680142039956991</v>
       </c>
       <c r="E11" s="2">
         <v>2461.819799417577</v>
@@ -724,7 +724,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="2">
-        <v>0.4274680309463292</v>
+        <v>0.3691892770002596</v>
       </c>
       <c r="E12" s="2">
         <v>1679.463243794905</v>
@@ -748,7 +748,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="2">
-        <v>0.3860053470125422</v>
+        <v>0.3708468809927581</v>
       </c>
       <c r="E13" s="2">
         <v>2288.763946670268</v>
@@ -772,7 +772,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="2">
-        <v>0.4210502980276942</v>
+        <v>0.3673139790043933</v>
       </c>
       <c r="E14" s="2">
         <v>1862.346206733525</v>
@@ -796,7 +796,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="2">
-        <v>0.3901549329748377</v>
+        <v>0.3624647149990778</v>
       </c>
       <c r="E15" s="2">
         <v>2216.287921935182</v>
@@ -820,7 +820,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="2">
-        <v>0.3856398700736463</v>
+        <v>0.4031539550051093</v>
       </c>
       <c r="E16" s="2">
         <v>2136.604240860626</v>
@@ -844,7 +844,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="2">
-        <v>0.4179445520276204</v>
+        <v>0.3915169250103645</v>
       </c>
       <c r="E17" s="2">
         <v>2254.897660776275</v>
@@ -868,7 +868,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="2">
-        <v>0.4087039270671085</v>
+        <v>0.3653903499944136</v>
       </c>
       <c r="E18" s="2">
         <v>1917.131395886052</v>
@@ -892,7 +892,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="2">
-        <v>0.3963289910461754</v>
+        <v>0.3630967060016701</v>
       </c>
       <c r="E19" s="2">
         <v>1616.769684899359</v>
@@ -916,7 +916,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="2">
-        <v>0.3808142270427197</v>
+        <v>0.3702019699994707</v>
       </c>
       <c r="E20" s="2">
         <v>2121.347531146519</v>
@@ -940,7 +940,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="2">
-        <v>0.380029076943174</v>
+        <v>0.3642578800063347</v>
       </c>
       <c r="E21" s="2">
         <v>2146.2195250027</v>
@@ -964,7 +964,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="2">
-        <v>0.3812848130473867</v>
+        <v>0.3634811789961532</v>
       </c>
       <c r="E22" s="2">
         <v>2291.843329263006</v>
@@ -988,7 +988,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="2">
-        <v>0.3943766640732065</v>
+        <v>0.366798553004628</v>
       </c>
       <c r="E23" s="2">
         <v>2332.901090260365</v>
@@ -1012,7 +1012,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="2">
-        <v>0.3892936570337042</v>
+        <v>0.3668947239930276</v>
       </c>
       <c r="E24" s="2">
         <v>1847.758802812501</v>
@@ -1036,7 +1036,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="2">
-        <v>0.3891995119629428</v>
+        <v>0.3618203619989799</v>
       </c>
       <c r="E25" s="2">
         <v>2171.401305366863</v>
@@ -1060,7 +1060,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="2">
-        <v>0.4026628460269421</v>
+        <v>0.3627762050018646</v>
       </c>
       <c r="E26" s="2">
         <v>1882.822391520744</v>
@@ -1084,7 +1084,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="2">
-        <v>0.3822925459826365</v>
+        <v>0.3638171139900805</v>
       </c>
       <c r="E27" s="2">
         <v>1648.979333412594</v>
@@ -1108,7 +1108,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="2">
-        <v>0.3880262589082122</v>
+        <v>0.3608598410064587</v>
       </c>
       <c r="E28" s="2">
         <v>2370.965285848897</v>
@@ -1132,7 +1132,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="2">
-        <v>0.3827347070910037</v>
+        <v>0.3646807670011185</v>
       </c>
       <c r="E29" s="2">
         <v>2423.001308698957</v>
@@ -1156,7 +1156,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="2">
-        <v>0.3956244389992207</v>
+        <v>0.3660362389928196</v>
       </c>
       <c r="E30" s="2">
         <v>1881.938471915356</v>
@@ -1180,7 +1180,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="2">
-        <v>0.398469329928048</v>
+        <v>0.3664010880020214</v>
       </c>
       <c r="E31" s="2">
         <v>2065.167075666091</v>
@@ -1204,7 +1204,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="2">
-        <v>0.3851818549446762</v>
+        <v>0.3647623410070082</v>
       </c>
       <c r="E32" s="2">
         <v>2483.174297421039</v>
@@ -1228,7 +1228,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="2">
-        <v>0.389341986970976</v>
+        <v>0.377031640993664</v>
       </c>
       <c r="E33" s="2">
         <v>1711.470662080814</v>
@@ -1252,7 +1252,7 @@
         <v>2</v>
       </c>
       <c r="D34" s="2">
-        <v>0.3901362860342488</v>
+        <v>0.3588804799946956</v>
       </c>
       <c r="E34" s="2">
         <v>2136.193681454619</v>
@@ -1276,7 +1276,7 @@
         <v>3</v>
       </c>
       <c r="D35" s="2">
-        <v>0.38418047898449</v>
+        <v>0.3788128629967105</v>
       </c>
       <c r="E35" s="2">
         <v>2102.189835901266</v>
@@ -1300,7 +1300,7 @@
         <v>4</v>
       </c>
       <c r="D36" s="2">
-        <v>0.3867957349866629</v>
+        <v>0.3654536260000896</v>
       </c>
       <c r="E36" s="2">
         <v>2203.501973267502</v>
@@ -1324,7 +1324,7 @@
         <v>5</v>
       </c>
       <c r="D37" s="2">
-        <v>0.3979721340583637</v>
+        <v>0.3628095189924352</v>
       </c>
       <c r="E37" s="2">
         <v>2714.150611497831</v>
@@ -1348,7 +1348,7 @@
         <v>6</v>
       </c>
       <c r="D38" s="2">
-        <v>0.8552050889702514</v>
+        <v>0.3654821899981471</v>
       </c>
       <c r="E38" s="2">
         <v>2133.933967373171</v>
@@ -1372,7 +1372,7 @@
         <v>7</v>
       </c>
       <c r="D39" s="2">
-        <v>0.4009026510175318</v>
+        <v>0.3650616780068958</v>
       </c>
       <c r="E39" s="2">
         <v>2489.338018087221</v>
@@ -1396,7 +1396,7 @@
         <v>8</v>
       </c>
       <c r="D40" s="2">
-        <v>0.3854236439801753</v>
+        <v>0.3647907659906195</v>
       </c>
       <c r="E40" s="2">
         <v>2474.073909637841</v>
@@ -1420,7 +1420,7 @@
         <v>9</v>
       </c>
       <c r="D41" s="2">
-        <v>0.3885847750352696</v>
+        <v>0.3632210209907498</v>
       </c>
       <c r="E41" s="2">
         <v>2297.53803294423</v>
@@ -1444,7 +1444,7 @@
         <v>10</v>
       </c>
       <c r="D42" s="2">
-        <v>0.3972114289645106</v>
+        <v>0.3630682789953426</v>
       </c>
       <c r="E42" s="2">
         <v>2058.89725868876</v>
@@ -1468,7 +1468,7 @@
         <v>11</v>
       </c>
       <c r="D43" s="2">
-        <v>0.388938588090241</v>
+        <v>0.365370654995786</v>
       </c>
       <c r="E43" s="2">
         <v>2188.519720405295</v>
@@ -1492,7 +1492,7 @@
         <v>12</v>
       </c>
       <c r="D44" s="2">
-        <v>0.4078983850777149</v>
+        <v>0.365778663996025</v>
       </c>
       <c r="E44" s="2">
         <v>3050.04982739275</v>
@@ -1516,7 +1516,7 @@
         <v>13</v>
       </c>
       <c r="D45" s="2">
-        <v>0.3824262210400775</v>
+        <v>0.3640934039867716</v>
       </c>
       <c r="E45" s="2">
         <v>2443.454107267583</v>
@@ -1540,7 +1540,7 @@
         <v>14</v>
       </c>
       <c r="D46" s="2">
-        <v>0.3871470340527594</v>
+        <v>0.3647645750024822</v>
       </c>
       <c r="E46" s="2">
         <v>2103.347035641125</v>
@@ -1564,7 +1564,7 @@
         <v>15</v>
       </c>
       <c r="D47" s="2">
-        <v>0.3874975650105625</v>
+        <v>0.3703721710044192</v>
       </c>
       <c r="E47" s="2">
         <v>3050.793778149115</v>
@@ -1588,7 +1588,7 @@
         <v>16</v>
       </c>
       <c r="D48" s="2">
-        <v>0.3840155859943479</v>
+        <v>0.3643206660053693</v>
       </c>
       <c r="E48" s="2">
         <v>2444.094014359898</v>
@@ -1612,7 +1612,7 @@
         <v>17</v>
       </c>
       <c r="D49" s="2">
-        <v>0.388350807945244</v>
+        <v>0.3666002730024047</v>
       </c>
       <c r="E49" s="2">
         <v>2021.316244151838</v>
@@ -1636,7 +1636,7 @@
         <v>18</v>
       </c>
       <c r="D50" s="2">
-        <v>0.4071126079652458</v>
+        <v>0.3643926020013168</v>
       </c>
       <c r="E50" s="2">
         <v>2412.633415006096</v>
@@ -1660,7 +1660,7 @@
         <v>19</v>
       </c>
       <c r="D51" s="2">
-        <v>0.3916539250640199</v>
+        <v>0.3628051880077692</v>
       </c>
       <c r="E51" s="2">
         <v>2101.961259957808</v>
@@ -1684,7 +1684,7 @@
         <v>20</v>
       </c>
       <c r="D52" s="2">
-        <v>0.4071548610227183</v>
+        <v>0.3653437650064006</v>
       </c>
       <c r="E52" s="2">
         <v>2390.705024767528</v>
@@ -1708,7 +1708,7 @@
         <v>21</v>
       </c>
       <c r="D53" s="2">
-        <v>0.3926289709052071</v>
+        <v>0.3626164779998362</v>
       </c>
       <c r="E53" s="2">
         <v>2384.477517002013</v>
@@ -1732,7 +1732,7 @@
         <v>22</v>
       </c>
       <c r="D54" s="2">
-        <v>0.3923894170438871</v>
+        <v>0.3971097820030991</v>
       </c>
       <c r="E54" s="2">
         <v>2024.522265184489</v>
@@ -1756,7 +1756,7 @@
         <v>23</v>
       </c>
       <c r="D55" s="2">
-        <v>0.4185941410250962</v>
+        <v>0.3644459609931801</v>
       </c>
       <c r="E55" s="2">
         <v>2099.786323386943</v>
@@ -1780,7 +1780,7 @@
         <v>24</v>
       </c>
       <c r="D56" s="2">
-        <v>0.3834369560936466</v>
+        <v>0.3677925969968783</v>
       </c>
       <c r="E56" s="2">
         <v>2428.836695640345</v>
@@ -1804,7 +1804,7 @@
         <v>25</v>
       </c>
       <c r="D57" s="2">
-        <v>0.3907697419635952</v>
+        <v>0.3643782150029438</v>
       </c>
       <c r="E57" s="2">
         <v>1936.958929914982</v>
@@ -1828,7 +1828,7 @@
         <v>26</v>
       </c>
       <c r="D58" s="2">
-        <v>0.3947056150063872</v>
+        <v>0.36246045299049</v>
       </c>
       <c r="E58" s="2">
         <v>2807.576551111727</v>
@@ -1852,7 +1852,7 @@
         <v>27</v>
       </c>
       <c r="D59" s="2">
-        <v>0.387059872969985</v>
+        <v>0.3679255039896816</v>
       </c>
       <c r="E59" s="2">
         <v>2173.794976383858</v>
@@ -1876,7 +1876,7 @@
         <v>28</v>
       </c>
       <c r="D60" s="2">
-        <v>0.385881940019317</v>
+        <v>0.3691271160059841</v>
       </c>
       <c r="E60" s="2">
         <v>2218.270608169488</v>
@@ -1900,7 +1900,7 @@
         <v>1</v>
       </c>
       <c r="D61" s="2">
-        <v>0.3828365349909291</v>
+        <v>0.3654220559983514</v>
       </c>
       <c r="E61" s="2">
         <v>2012.97839170426</v>
@@ -1924,7 +1924,7 @@
         <v>2</v>
       </c>
       <c r="D62" s="2">
-        <v>0.3865319470642135</v>
+        <v>0.3616693649964873</v>
       </c>
       <c r="E62" s="2">
         <v>2051.283450228911</v>
@@ -1948,7 +1948,7 @@
         <v>3</v>
       </c>
       <c r="D63" s="2">
-        <v>0.3874599210685119</v>
+        <v>0.3690089449955849</v>
       </c>
       <c r="E63" s="2">
         <v>2177.07886467898</v>
@@ -1972,7 +1972,7 @@
         <v>4</v>
       </c>
       <c r="D64" s="2">
-        <v>0.3862991690402851</v>
+        <v>1.975329575987416</v>
       </c>
       <c r="E64" s="2">
         <v>2665.347329348984</v>
@@ -1996,7 +1996,7 @@
         <v>5</v>
       </c>
       <c r="D65" s="2">
-        <v>0.386131620965898</v>
+        <v>0.3660161930019967</v>
       </c>
       <c r="E65" s="2">
         <v>1792.582924883986</v>
@@ -2020,7 +2020,7 @@
         <v>6</v>
       </c>
       <c r="D66" s="2">
-        <v>0.3869376520160586</v>
+        <v>0.3660888269951101</v>
       </c>
       <c r="E66" s="2">
         <v>2558.155264972005</v>
@@ -2044,7 +2044,7 @@
         <v>7</v>
       </c>
       <c r="D67" s="2">
-        <v>0.4042713480303064</v>
+        <v>0.3533233769994695</v>
       </c>
       <c r="E67" s="2">
         <v>2279.502128405958</v>
@@ -2068,7 +2068,7 @@
         <v>8</v>
       </c>
       <c r="D68" s="2">
-        <v>0.3950303749879822</v>
+        <v>0.366735065006651</v>
       </c>
       <c r="E68" s="2">
         <v>1998.080267334325</v>
@@ -2092,7 +2092,7 @@
         <v>9</v>
       </c>
       <c r="D69" s="2">
-        <v>0.3850800980580971</v>
+        <v>0.3664270659937756</v>
       </c>
       <c r="E69" s="2">
         <v>1877.620855618634</v>
@@ -2116,7 +2116,7 @@
         <v>10</v>
       </c>
       <c r="D70" s="2">
-        <v>0.3825005320832133</v>
+        <v>0.3614698989986209</v>
       </c>
       <c r="E70" s="2">
         <v>2098.222583572444</v>
@@ -2140,7 +2140,7 @@
         <v>11</v>
       </c>
       <c r="D71" s="2">
-        <v>0.3881533000385389</v>
+        <v>0.3607564039994031</v>
       </c>
       <c r="E71" s="2">
         <v>2106.175016203056</v>
@@ -2164,7 +2164,7 @@
         <v>12</v>
       </c>
       <c r="D72" s="2">
-        <v>0.3900341800181195</v>
+        <v>0.3692371150100371</v>
       </c>
       <c r="E72" s="2">
         <v>2031.893076927213</v>
@@ -2188,7 +2188,7 @@
         <v>13</v>
       </c>
       <c r="D73" s="2">
-        <v>0.3915692790178582</v>
+        <v>0.3698575110029196</v>
       </c>
       <c r="E73" s="2">
         <v>1887.246353673753</v>
@@ -2212,7 +2212,7 @@
         <v>14</v>
       </c>
       <c r="D74" s="2">
-        <v>0.3829065860481933</v>
+        <v>0.3635821670031874</v>
       </c>
       <c r="E74" s="2">
         <v>2349.957321814067</v>
@@ -2236,7 +2236,7 @@
         <v>15</v>
       </c>
       <c r="D75" s="2">
-        <v>0.3892378560267389</v>
+        <v>0.3647883889934747</v>
       </c>
       <c r="E75" s="2">
         <v>1973.582378564819</v>
@@ -2260,7 +2260,7 @@
         <v>16</v>
       </c>
       <c r="D76" s="2">
-        <v>0.3852549800649285</v>
+        <v>0.3639976499980548</v>
       </c>
       <c r="E76" s="2">
         <v>2264.133558128131</v>
@@ -2284,7 +2284,7 @@
         <v>17</v>
       </c>
       <c r="D77" s="2">
-        <v>0.387329668039456</v>
+        <v>0.3592078910005512</v>
       </c>
       <c r="E77" s="2">
         <v>2266.682273977592</v>
@@ -2308,7 +2308,7 @@
         <v>18</v>
       </c>
       <c r="D78" s="2">
-        <v>0.3905647599603981</v>
+        <v>0.3663048439921113</v>
       </c>
       <c r="E78" s="2">
         <v>2071.209564129969</v>
@@ -2332,7 +2332,7 @@
         <v>19</v>
       </c>
       <c r="D79" s="2">
-        <v>0.3899143330054358</v>
+        <v>0.3635277600114932</v>
       </c>
       <c r="E79" s="2">
         <v>2272.493067013165</v>
@@ -2356,7 +2356,7 @@
         <v>20</v>
       </c>
       <c r="D80" s="2">
-        <v>0.3837781980400905</v>
+        <v>0.368979610997485</v>
       </c>
       <c r="E80" s="2">
         <v>2141.589678787966</v>
@@ -2380,7 +2380,7 @@
         <v>21</v>
       </c>
       <c r="D81" s="2">
-        <v>0.3980528019601479</v>
+        <v>0.3688535480032442</v>
       </c>
       <c r="E81" s="2">
         <v>1716.756435372441</v>
@@ -2404,7 +2404,7 @@
         <v>22</v>
       </c>
       <c r="D82" s="2">
-        <v>0.3847503109136596</v>
+        <v>0.3653772180114174</v>
       </c>
       <c r="E82" s="2">
         <v>2496.082027805238</v>
@@ -2428,7 +2428,7 @@
         <v>23</v>
       </c>
       <c r="D83" s="2">
-        <v>0.3878825280116871</v>
+        <v>0.3652967599919066</v>
       </c>
       <c r="E83" s="2">
         <v>1884.28023418058</v>
@@ -2452,7 +2452,7 @@
         <v>24</v>
       </c>
       <c r="D84" s="2">
-        <v>0.392356873024255</v>
+        <v>0.3895372800034238</v>
       </c>
       <c r="E84" s="2">
         <v>2388.319351679738</v>
@@ -2476,7 +2476,7 @@
         <v>25</v>
       </c>
       <c r="D85" s="2">
-        <v>0.386883317027241</v>
+        <v>0.3891104119975353</v>
       </c>
       <c r="E85" s="2">
         <v>1948.509152029312</v>
@@ -2500,7 +2500,7 @@
         <v>26</v>
       </c>
       <c r="D86" s="2">
-        <v>0.3862128460314125</v>
+        <v>0.3770319869945524</v>
       </c>
       <c r="E86" s="2">
         <v>2414.001948554051</v>
@@ -2524,7 +2524,7 @@
         <v>27</v>
       </c>
       <c r="D87" s="2">
-        <v>0.3957952009513974</v>
+        <v>0.3798562839947408</v>
       </c>
       <c r="E87" s="2">
         <v>1734.229765413779</v>
@@ -2548,7 +2548,7 @@
         <v>28</v>
       </c>
       <c r="D88" s="2">
-        <v>0.3713099559536204</v>
+        <v>0.365429668003344</v>
       </c>
       <c r="E88" s="2">
         <v>2071.664874776551</v>
@@ -2572,7 +2572,7 @@
         <v>29</v>
       </c>
       <c r="D89" s="2">
-        <v>0.3853616969427094</v>
+        <v>0.3677001250034664</v>
       </c>
       <c r="E89" s="2">
         <v>1920.681444017422</v>
@@ -2596,7 +2596,7 @@
         <v>30</v>
       </c>
       <c r="D90" s="2">
-        <v>0.3828874500468373</v>
+        <v>0.3803990169981262</v>
       </c>
       <c r="E90" s="2">
         <v>2533.411179993872</v>
@@ -2620,7 +2620,7 @@
         <v>31</v>
       </c>
       <c r="D91" s="2">
-        <v>0.4066433489788324</v>
+        <v>0.3837026310065994</v>
       </c>
       <c r="E91" s="2">
         <v>2147.713192533203</v>
@@ -2644,7 +2644,7 @@
         <v>1</v>
       </c>
       <c r="D92" s="2">
-        <v>0.3869658679468557</v>
+        <v>0.3739695340045728</v>
       </c>
       <c r="E92" s="2">
         <v>2433.830881494296</v>
@@ -2668,7 +2668,7 @@
         <v>2</v>
       </c>
       <c r="D93" s="2">
-        <v>0.3877766490913928</v>
+        <v>0.3674342409940436</v>
       </c>
       <c r="E93" s="2">
         <v>2407.312547262954</v>
@@ -2692,7 +2692,7 @@
         <v>3</v>
       </c>
       <c r="D94" s="2">
-        <v>0.3881806780118495</v>
+        <v>0.3692483579943655</v>
       </c>
       <c r="E94" s="2">
         <v>2161.049146836328</v>
@@ -2716,7 +2716,7 @@
         <v>4</v>
       </c>
       <c r="D95" s="2">
-        <v>0.3869118810398504</v>
+        <v>0.3643982569919899</v>
       </c>
       <c r="E95" s="2">
         <v>2274.810720700573</v>
@@ -2740,7 +2740,7 @@
         <v>5</v>
       </c>
       <c r="D96" s="2">
-        <v>0.3833562909858301</v>
+        <v>0.3910582050011726</v>
       </c>
       <c r="E96" s="2">
         <v>2607.343398394959</v>
@@ -2764,7 +2764,7 @@
         <v>6</v>
       </c>
       <c r="D97" s="2">
-        <v>0.383982134051621</v>
+        <v>0.3672231119999196</v>
       </c>
       <c r="E97" s="2">
         <v>2672.076539446277</v>
@@ -2788,7 +2788,7 @@
         <v>7</v>
       </c>
       <c r="D98" s="2">
-        <v>0.3801393579924479</v>
+        <v>0.3623921469989</v>
       </c>
       <c r="E98" s="2">
         <v>2311.581861488192</v>
@@ -2812,7 +2812,7 @@
         <v>8</v>
       </c>
       <c r="D99" s="2">
-        <v>0.3864041389897466</v>
+        <v>0.3601643610018073</v>
       </c>
       <c r="E99" s="2">
         <v>2052.676109092337</v>
@@ -2836,7 +2836,7 @@
         <v>9</v>
       </c>
       <c r="D100" s="2">
-        <v>0.3827553120208904</v>
+        <v>0.3809822579933098</v>
       </c>
       <c r="E100" s="2">
         <v>2042.369788350777</v>
@@ -2860,7 +2860,7 @@
         <v>10</v>
       </c>
       <c r="D101" s="2">
-        <v>0.4004873100202531</v>
+        <v>0.3676330070011318</v>
       </c>
       <c r="E101" s="2">
         <v>2716.566971935454</v>
@@ -2884,7 +2884,7 @@
         <v>11</v>
       </c>
       <c r="D102" s="2">
-        <v>0.395035544061102</v>
+        <v>0.4958296830009203</v>
       </c>
       <c r="E102" s="2">
         <v>2085.687588938484</v>
@@ -2908,7 +2908,7 @@
         <v>12</v>
       </c>
       <c r="D103" s="2">
-        <v>0.3867713620420545</v>
+        <v>0.3632817100005923</v>
       </c>
       <c r="E103" s="2">
         <v>2456.689901301214</v>
@@ -2932,7 +2932,7 @@
         <v>13</v>
       </c>
       <c r="D104" s="2">
-        <v>0.4006323690991849</v>
+        <v>0.3640218140062643</v>
       </c>
       <c r="E104" s="2">
         <v>1992.452481926058</v>
@@ -2956,7 +2956,7 @@
         <v>14</v>
       </c>
       <c r="D105" s="2">
-        <v>0.3845919129671529</v>
+        <v>0.3649572619906394</v>
       </c>
       <c r="E105" s="2">
         <v>1784.958332873223</v>
@@ -2980,7 +2980,7 @@
         <v>15</v>
       </c>
       <c r="D106" s="2">
-        <v>0.3878779880469665</v>
+        <v>0.3680059580074158</v>
       </c>
       <c r="E106" s="2">
         <v>2113.649987522091</v>
@@ -3004,7 +3004,7 @@
         <v>16</v>
       </c>
       <c r="D107" s="2">
-        <v>0.3905441580573097</v>
+        <v>0.3679351390019292</v>
       </c>
       <c r="E107" s="2">
         <v>2834.042648056311</v>
@@ -3028,7 +3028,7 @@
         <v>17</v>
       </c>
       <c r="D108" s="2">
-        <v>0.3886560139944777</v>
+        <v>0.3663988490006886</v>
       </c>
       <c r="E108" s="2">
         <v>2203.992252756309</v>
@@ -3052,7 +3052,7 @@
         <v>18</v>
       </c>
       <c r="D109" s="2">
-        <v>0.385849394951947</v>
+        <v>0.3798177300050156</v>
       </c>
       <c r="E109" s="2">
         <v>2646.171754674239</v>
@@ -3076,7 +3076,7 @@
         <v>19</v>
       </c>
       <c r="D110" s="2">
-        <v>0.391393490950577</v>
+        <v>0.3693221089924918</v>
       </c>
       <c r="E110" s="2">
         <v>2461.999712234548</v>
@@ -3100,7 +3100,7 @@
         <v>20</v>
       </c>
       <c r="D111" s="2">
-        <v>0.3890410459134728</v>
+        <v>0.3819958579988452</v>
       </c>
       <c r="E111" s="2">
         <v>1994.718661832441</v>
@@ -3124,7 +3124,7 @@
         <v>21</v>
       </c>
       <c r="D112" s="2">
-        <v>0.389194417046383</v>
+        <v>0.3627416999952402</v>
       </c>
       <c r="E112" s="2">
         <v>2310.970542376888</v>
@@ -3148,7 +3148,7 @@
         <v>22</v>
       </c>
       <c r="D113" s="2">
-        <v>0.3827408551005647</v>
+        <v>0.3656690810021246</v>
       </c>
       <c r="E113" s="2">
         <v>2244.904959705801</v>
@@ -3172,7 +3172,7 @@
         <v>23</v>
       </c>
       <c r="D114" s="2">
-        <v>0.3836261560209095</v>
+        <v>0.3677699649997521</v>
       </c>
       <c r="E114" s="2">
         <v>2133.542564063142</v>
@@ -3196,7 +3196,7 @@
         <v>24</v>
       </c>
       <c r="D115" s="2">
-        <v>0.3825544500723481</v>
+        <v>0.527112120995298</v>
       </c>
       <c r="E115" s="2">
         <v>2257.42201103168</v>
@@ -3220,7 +3220,7 @@
         <v>25</v>
       </c>
       <c r="D116" s="2">
-        <v>0.3886055190814659</v>
+        <v>0.3619737980043283</v>
       </c>
       <c r="E116" s="2">
         <v>2015.924923223921</v>
@@ -3244,7 +3244,7 @@
         <v>26</v>
       </c>
       <c r="D117" s="2">
-        <v>0.3978673049714416</v>
+        <v>0.3655308650049847</v>
       </c>
       <c r="E117" s="2">
         <v>1996.43952347533</v>
@@ -3268,7 +3268,7 @@
         <v>27</v>
       </c>
       <c r="D118" s="2">
-        <v>0.4027627899777144</v>
+        <v>0.3652556919987546</v>
       </c>
       <c r="E118" s="2">
         <v>2444.065364822865</v>
@@ -3292,7 +3292,7 @@
         <v>28</v>
       </c>
       <c r="D119" s="2">
-        <v>0.3895323059987277</v>
+        <v>0.3628318639966892</v>
       </c>
       <c r="E119" s="2">
         <v>2381.746515335733</v>
@@ -3316,7 +3316,7 @@
         <v>29</v>
       </c>
       <c r="D120" s="2">
-        <v>0.3917623200686648</v>
+        <v>0.3599137009878177</v>
       </c>
       <c r="E120" s="2">
         <v>2123.649022426198</v>
@@ -3340,7 +3340,7 @@
         <v>30</v>
       </c>
       <c r="D121" s="2">
-        <v>0.4114330959273502</v>
+        <v>0.3692785979947075</v>
       </c>
       <c r="E121" s="2">
         <v>2318.198043567214</v>
@@ -3364,7 +3364,7 @@
         <v>1</v>
       </c>
       <c r="D122" s="2">
-        <v>0.4075130060082301</v>
+        <v>0.3684224190074019</v>
       </c>
       <c r="E122" s="2">
         <v>2076.316497045639</v>
@@ -3388,7 +3388,7 @@
         <v>2</v>
       </c>
       <c r="D123" s="2">
-        <v>0.3808672389714047</v>
+        <v>0.3647877580078784</v>
       </c>
       <c r="E123" s="2">
         <v>2637.105224516816</v>
@@ -3412,7 +3412,7 @@
         <v>3</v>
       </c>
       <c r="D124" s="2">
-        <v>0.3822795569431037</v>
+        <v>0.3673770390014397</v>
       </c>
       <c r="E124" s="2">
         <v>1932.816488470707</v>
@@ -3436,7 +3436,7 @@
         <v>4</v>
       </c>
       <c r="D125" s="2">
-        <v>0.3837307770736516</v>
+        <v>0.3689182180096395</v>
       </c>
       <c r="E125" s="2">
         <v>2117.039238512004</v>
@@ -3460,7 +3460,7 @@
         <v>5</v>
       </c>
       <c r="D126" s="2">
-        <v>0.3841873970814049</v>
+        <v>0.6086030430014944</v>
       </c>
       <c r="E126" s="2">
         <v>1877.159737608009</v>
@@ -3484,7 +3484,7 @@
         <v>6</v>
       </c>
       <c r="D127" s="2">
-        <v>0.3861097620101646</v>
+        <v>0.397911830994417</v>
       </c>
       <c r="E127" s="2">
         <v>1880.899116023981</v>
@@ -3508,7 +3508,7 @@
         <v>7</v>
       </c>
       <c r="D128" s="2">
-        <v>0.3908795330207795</v>
+        <v>0.3797211389901349</v>
       </c>
       <c r="E128" s="2">
         <v>2736.651241663402</v>
@@ -3532,7 +3532,7 @@
         <v>8</v>
       </c>
       <c r="D129" s="2">
-        <v>0.3878934941021726</v>
+        <v>0.4225331919878954</v>
       </c>
       <c r="E129" s="2">
         <v>2554.675614551421</v>
@@ -3556,7 +3556,7 @@
         <v>9</v>
       </c>
       <c r="D130" s="2">
-        <v>0.5209439600585029</v>
+        <v>0.3749666499934392</v>
       </c>
       <c r="E130" s="2">
         <v>2105.092439492814</v>
@@ -3580,7 +3580,7 @@
         <v>10</v>
       </c>
       <c r="D131" s="2">
-        <v>0.3807480209507048</v>
+        <v>0.3642552899982547</v>
       </c>
       <c r="E131" s="2">
         <v>2570.365951124642</v>
@@ -3604,7 +3604,7 @@
         <v>11</v>
       </c>
       <c r="D132" s="2">
-        <v>0.3812234969809651</v>
+        <v>0.3637983210064704</v>
       </c>
       <c r="E132" s="2">
         <v>2409.85761794789</v>
@@ -3628,7 +3628,7 @@
         <v>12</v>
       </c>
       <c r="D133" s="2">
-        <v>0.4047547179507092</v>
+        <v>0.3608814159961184</v>
       </c>
       <c r="E133" s="2">
         <v>1934.38381936655</v>
@@ -3652,7 +3652,7 @@
         <v>13</v>
       </c>
       <c r="D134" s="2">
-        <v>0.3881494600791484</v>
+        <v>0.4336561939999228</v>
       </c>
       <c r="E134" s="2">
         <v>1850.504623548576</v>
@@ -3676,7 +3676,7 @@
         <v>14</v>
       </c>
       <c r="D135" s="2">
-        <v>0.3862210880033672</v>
+        <v>0.3606884460023139</v>
       </c>
       <c r="E135" s="2">
         <v>1722.693213533703</v>
@@ -3700,7 +3700,7 @@
         <v>15</v>
       </c>
       <c r="D136" s="2">
-        <v>0.3833583870436996</v>
+        <v>0.3642237919993931</v>
       </c>
       <c r="E136" s="2">
         <v>1645.909019480519</v>
@@ -3724,7 +3724,7 @@
         <v>16</v>
       </c>
       <c r="D137" s="2">
-        <v>0.3869604920037091</v>
+        <v>0.3664912469976116</v>
       </c>
       <c r="E137" s="2">
         <v>2377.936871718181</v>
@@ -3748,7 +3748,7 @@
         <v>17</v>
       </c>
       <c r="D138" s="2">
-        <v>0.3768963759066537</v>
+        <v>0.3652184660022613</v>
       </c>
       <c r="E138" s="2">
         <v>1987.889713887698</v>
@@ -3772,7 +3772,7 @@
         <v>18</v>
       </c>
       <c r="D139" s="2">
-        <v>0.3858014850411564</v>
+        <v>0.3707945639907848</v>
       </c>
       <c r="E139" s="2">
         <v>2174.201807454974</v>
@@ -3796,7 +3796,7 @@
         <v>19</v>
       </c>
       <c r="D140" s="2">
-        <v>0.3878601099131629</v>
+        <v>0.3857648910052376</v>
       </c>
       <c r="E140" s="2">
         <v>1792.325560238323</v>
@@ -3820,7 +3820,7 @@
         <v>20</v>
       </c>
       <c r="D141" s="2">
-        <v>0.3888243309920654</v>
+        <v>0.3859040139941499</v>
       </c>
       <c r="E141" s="2">
         <v>2137.947358172481</v>
@@ -3844,7 +3844,7 @@
         <v>21</v>
       </c>
       <c r="D142" s="2">
-        <v>0.3905360570643097</v>
+        <v>0.377228796001873</v>
       </c>
       <c r="E142" s="2">
         <v>2387.941141580944</v>
@@ -3868,7 +3868,7 @@
         <v>22</v>
       </c>
       <c r="D143" s="2">
-        <v>0.3845908669754863</v>
+        <v>0.3682663219951792</v>
       </c>
       <c r="E143" s="2">
         <v>2425.501270226095</v>
@@ -3892,7 +3892,7 @@
         <v>23</v>
       </c>
       <c r="D144" s="2">
-        <v>0.3859128119656816</v>
+        <v>0.3784692400076892</v>
       </c>
       <c r="E144" s="2">
         <v>2241.764530155729</v>
@@ -3916,7 +3916,7 @@
         <v>24</v>
       </c>
       <c r="D145" s="2">
-        <v>0.3880701219895855</v>
+        <v>0.3689726940065157</v>
       </c>
       <c r="E145" s="2">
         <v>2350.55363672152</v>
@@ -3940,7 +3940,7 @@
         <v>25</v>
       </c>
       <c r="D146" s="2">
-        <v>0.3914011740125716</v>
+        <v>0.3695504179922864</v>
       </c>
       <c r="E146" s="2">
         <v>2391.948266752824</v>
@@ -3964,7 +3964,7 @@
         <v>26</v>
       </c>
       <c r="D147" s="2">
-        <v>0.3910718050319701</v>
+        <v>0.3653145670105005</v>
       </c>
       <c r="E147" s="2">
         <v>1959.570186195937</v>
@@ -3988,7 +3988,7 @@
         <v>27</v>
       </c>
       <c r="D148" s="2">
-        <v>0.3855578110087663</v>
+        <v>0.3667673270101659</v>
       </c>
       <c r="E148" s="2">
         <v>2144.407151098665</v>
@@ -4012,7 +4012,7 @@
         <v>28</v>
       </c>
       <c r="D149" s="2">
-        <v>0.3841086870525032</v>
+        <v>0.36955181400117</v>
       </c>
       <c r="E149" s="2">
         <v>2163.008743013525</v>
@@ -4036,7 +4036,7 @@
         <v>29</v>
       </c>
       <c r="D150" s="2">
-        <v>0.3920179380802438</v>
+        <v>0.3656317139975727</v>
       </c>
       <c r="E150" s="2">
         <v>2072.340714304084</v>
@@ -4060,7 +4060,7 @@
         <v>30</v>
       </c>
       <c r="D151" s="2">
-        <v>0.3870257940143347</v>
+        <v>0.3664822360005928</v>
       </c>
       <c r="E151" s="2">
         <v>1799.972058205954</v>
@@ -4084,7 +4084,7 @@
         <v>31</v>
       </c>
       <c r="D152" s="2">
-        <v>0.3900753880152479</v>
+        <v>0.3658105059876107</v>
       </c>
       <c r="E152" s="2">
         <v>2159.411837019392</v>
@@ -4108,7 +4108,7 @@
         <v>1</v>
       </c>
       <c r="D153" s="2">
-        <v>0.3835622529732063</v>
+        <v>0.3700147899944568</v>
       </c>
       <c r="E153" s="2">
         <v>2196.282651656764</v>
@@ -4132,7 +4132,7 @@
         <v>2</v>
       </c>
       <c r="D154" s="2">
-        <v>0.3830387969501317</v>
+        <v>0.3663043519918574</v>
       </c>
       <c r="E154" s="2">
         <v>2385.07436963694</v>
@@ -4156,7 +4156,7 @@
         <v>3</v>
       </c>
       <c r="D155" s="2">
-        <v>0.3880948460428044</v>
+        <v>0.3649263910047011</v>
       </c>
       <c r="E155" s="2">
         <v>2457.771117190254</v>
@@ -4180,7 +4180,7 @@
         <v>4</v>
       </c>
       <c r="D156" s="2">
-        <v>0.3848850360373035</v>
+        <v>0.381642041989835</v>
       </c>
       <c r="E156" s="2">
         <v>2206.876930859468</v>
@@ -4204,7 +4204,7 @@
         <v>5</v>
       </c>
       <c r="D157" s="2">
-        <v>0.3881009219912812</v>
+        <v>0.3627076849952573</v>
       </c>
       <c r="E157" s="2">
         <v>2436.457284345337</v>
@@ -4228,7 +4228,7 @@
         <v>6</v>
       </c>
       <c r="D158" s="2">
-        <v>0.3861041059717536</v>
+        <v>0.3597748549946118</v>
       </c>
       <c r="E158" s="2">
         <v>2137.46344823318</v>
@@ -4252,7 +4252,7 @@
         <v>7</v>
       </c>
       <c r="D159" s="2">
-        <v>0.3963442899985239</v>
+        <v>0.3700684270006604</v>
       </c>
       <c r="E159" s="2">
         <v>1972.499336598052</v>
@@ -4276,7 +4276,7 @@
         <v>8</v>
       </c>
       <c r="D160" s="2">
-        <v>0.392468550009653</v>
+        <v>0.3651421289978316</v>
       </c>
       <c r="E160" s="2">
         <v>1705.502565319909</v>
@@ -4300,7 +4300,7 @@
         <v>9</v>
       </c>
       <c r="D161" s="2">
-        <v>0.4108191269915551</v>
+        <v>0.3812171989993658</v>
       </c>
       <c r="E161" s="2">
         <v>1520.384695761918</v>
@@ -4324,7 +4324,7 @@
         <v>10</v>
       </c>
       <c r="D162" s="2">
-        <v>0.3863694299943745</v>
+        <v>0.366328236006666</v>
       </c>
       <c r="E162" s="2">
         <v>2160.627030422104</v>
@@ -4348,7 +4348,7 @@
         <v>11</v>
       </c>
       <c r="D163" s="2">
-        <v>0.3820022210711613</v>
+        <v>0.3619480950001162</v>
       </c>
       <c r="E163" s="2">
         <v>1762.466503610988</v>
@@ -4372,7 +4372,7 @@
         <v>12</v>
       </c>
       <c r="D164" s="2">
-        <v>0.3892211669590324</v>
+        <v>0.3814050010114443</v>
       </c>
       <c r="E164" s="2">
         <v>2095.111235755413</v>
@@ -4396,7 +4396,7 @@
         <v>13</v>
       </c>
       <c r="D165" s="2">
-        <v>0.3880233980016783</v>
+        <v>0.3703478589886799</v>
       </c>
       <c r="E165" s="2">
         <v>2324.254658553123</v>
@@ -4420,7 +4420,7 @@
         <v>14</v>
       </c>
       <c r="D166" s="2">
-        <v>0.3822051789611578</v>
+        <v>0.363935069006402</v>
       </c>
       <c r="E166" s="2">
         <v>2057.685242986978</v>
@@ -4444,7 +4444,7 @@
         <v>15</v>
       </c>
       <c r="D167" s="2">
-        <v>0.3831065429840237</v>
+        <v>0.3810908570012543</v>
       </c>
       <c r="E167" s="2">
         <v>2464.82606467359</v>
@@ -4468,7 +4468,7 @@
         <v>16</v>
       </c>
       <c r="D168" s="2">
-        <v>0.3885374959791079</v>
+        <v>0.3735801669972716</v>
       </c>
       <c r="E168" s="2">
         <v>2110.779571279063</v>
@@ -4492,7 +4492,7 @@
         <v>17</v>
       </c>
       <c r="D169" s="2">
-        <v>0.3866127559449524</v>
+        <v>0.3621807349991286</v>
       </c>
       <c r="E169" s="2">
         <v>2505.910600184307</v>
@@ -4516,7 +4516,7 @@
         <v>18</v>
       </c>
       <c r="D170" s="2">
-        <v>0.3845086649525911</v>
+        <v>0.3641343250055797</v>
       </c>
       <c r="E170" s="2">
         <v>1647.533158928937</v>
@@ -4540,7 +4540,7 @@
         <v>19</v>
       </c>
       <c r="D171" s="2">
-        <v>0.3880024470854551</v>
+        <v>0.3678384060040116</v>
       </c>
       <c r="E171" s="2">
         <v>1974.428105712782</v>
@@ -4564,7 +4564,7 @@
         <v>20</v>
       </c>
       <c r="D172" s="2">
-        <v>0.4149735330138355</v>
+        <v>0.3678099810058484</v>
       </c>
       <c r="E172" s="2">
         <v>2513.991454597158</v>
@@ -4588,7 +4588,7 @@
         <v>21</v>
       </c>
       <c r="D173" s="2">
-        <v>0.3844479729887098</v>
+        <v>0.3683089239930268</v>
       </c>
       <c r="E173" s="2">
         <v>1780.737717395451</v>
@@ -4612,7 +4612,7 @@
         <v>22</v>
       </c>
       <c r="D174" s="2">
-        <v>0.3717803349718451</v>
+        <v>0.3682253949955339</v>
       </c>
       <c r="E174" s="2">
         <v>2255.58748646679</v>
@@ -4636,7 +4636,7 @@
         <v>23</v>
       </c>
       <c r="D175" s="2">
-        <v>0.3892352049006149</v>
+        <v>0.3662227059976431</v>
       </c>
       <c r="E175" s="2">
         <v>2538.307473397972</v>
@@ -4660,7 +4660,7 @@
         <v>24</v>
       </c>
       <c r="D176" s="2">
-        <v>0.3884465630399063</v>
+        <v>0.3835130090010352</v>
       </c>
       <c r="E176" s="2">
         <v>2087.974854691426</v>
@@ -4684,7 +4684,7 @@
         <v>25</v>
       </c>
       <c r="D177" s="2">
-        <v>0.387747248983942</v>
+        <v>0.3716195919987513</v>
       </c>
       <c r="E177" s="2">
         <v>2127.990181402628</v>
@@ -4708,7 +4708,7 @@
         <v>26</v>
       </c>
       <c r="D178" s="2">
-        <v>0.3833819949068129</v>
+        <v>0.3714522530062823</v>
       </c>
       <c r="E178" s="2">
         <v>2134.647587018293</v>
@@ -4732,7 +4732,7 @@
         <v>27</v>
       </c>
       <c r="D179" s="2">
-        <v>0.387639902997762</v>
+        <v>0.4343132550129667</v>
       </c>
       <c r="E179" s="2">
         <v>2337.026321713145</v>
@@ -4756,7 +4756,7 @@
         <v>28</v>
       </c>
       <c r="D180" s="2">
-        <v>0.3900508049409837</v>
+        <v>0.3733272720128298</v>
       </c>
       <c r="E180" s="2">
         <v>2200.329760590347</v>
@@ -4780,7 +4780,7 @@
         <v>29</v>
       </c>
       <c r="D181" s="2">
-        <v>0.3840055330656469</v>
+        <v>0.3777311599988025</v>
       </c>
       <c r="E181" s="2">
         <v>2431.022020553433</v>
@@ -4804,7 +4804,7 @@
         <v>30</v>
       </c>
       <c r="D182" s="2">
-        <v>0.3852588940644637</v>
+        <v>0.3661867379996693</v>
       </c>
       <c r="E182" s="2">
         <v>2294.756854658639</v>
@@ -4828,7 +4828,7 @@
         <v>1</v>
       </c>
       <c r="D183" s="2">
-        <v>0.3868632749654353</v>
+        <v>0.367170587007422</v>
       </c>
       <c r="E183" s="2">
         <v>1879.802659042441</v>
@@ -4852,7 +4852,7 @@
         <v>2</v>
       </c>
       <c r="D184" s="2">
-        <v>0.3873803060268983</v>
+        <v>0.3636212720011827</v>
       </c>
       <c r="E184" s="2">
         <v>2134.39946172399</v>
@@ -4876,7 +4876,7 @@
         <v>3</v>
       </c>
       <c r="D185" s="2">
-        <v>0.3916399599984288</v>
+        <v>0.3655073259869823</v>
       </c>
       <c r="E185" s="2">
         <v>2369.15855112158</v>
@@ -4900,7 +4900,7 @@
         <v>4</v>
       </c>
       <c r="D186" s="2">
-        <v>0.381890477030538</v>
+        <v>0.3684048849972896</v>
       </c>
       <c r="E186" s="2">
         <v>2201.091230166294</v>
@@ -4924,7 +4924,7 @@
         <v>5</v>
       </c>
       <c r="D187" s="2">
-        <v>0.39139314298518</v>
+        <v>0.3728304230025969</v>
       </c>
       <c r="E187" s="2">
         <v>2123.412352935886</v>
@@ -4948,7 +4948,7 @@
         <v>6</v>
       </c>
       <c r="D188" s="2">
-        <v>0.3850611050147563</v>
+        <v>0.3697206880024169</v>
       </c>
       <c r="E188" s="2">
         <v>1862.349367521303</v>
@@ -4972,7 +4972,7 @@
         <v>7</v>
       </c>
       <c r="D189" s="2">
-        <v>0.3884037509560585</v>
+        <v>0.3772507240064442</v>
       </c>
       <c r="E189" s="2">
         <v>1903.874646814641</v>
@@ -4996,7 +4996,7 @@
         <v>8</v>
       </c>
       <c r="D190" s="2">
-        <v>0.3879571899306029</v>
+        <v>0.3875651069974992</v>
       </c>
       <c r="E190" s="2">
         <v>1550.682658295898</v>
@@ -5020,7 +5020,7 @@
         <v>9</v>
       </c>
       <c r="D191" s="2">
-        <v>0.3899113329825923</v>
+        <v>0.3665777770074783</v>
       </c>
       <c r="E191" s="2">
         <v>2314.796501523785</v>
@@ -5044,7 +5044,7 @@
         <v>10</v>
       </c>
       <c r="D192" s="2">
-        <v>0.3848151270067319</v>
+        <v>0.3631169509899337</v>
       </c>
       <c r="E192" s="2">
         <v>2147.28958296368</v>
@@ -5068,7 +5068,7 @@
         <v>11</v>
       </c>
       <c r="D193" s="2">
-        <v>0.400369560928084</v>
+        <v>0.3668559530051425</v>
       </c>
       <c r="E193" s="2">
         <v>2346.301850815037</v>
@@ -5092,7 +5092,7 @@
         <v>12</v>
       </c>
       <c r="D194" s="2">
-        <v>0.3848479519365355</v>
+        <v>0.3656891220016405</v>
       </c>
       <c r="E194" s="2">
         <v>2330.275608498885</v>
@@ -5116,7 +5116,7 @@
         <v>13</v>
       </c>
       <c r="D195" s="2">
-        <v>0.3842634549364448</v>
+        <v>0.3679477760015288</v>
       </c>
       <c r="E195" s="2">
         <v>2281.674013900621</v>
@@ -5140,7 +5140,7 @@
         <v>14</v>
       </c>
       <c r="D196" s="2">
-        <v>0.4090137460734695</v>
+        <v>0.3655787030002102</v>
       </c>
       <c r="E196" s="2">
         <v>2142.059190417069</v>
@@ -5164,7 +5164,7 @@
         <v>15</v>
       </c>
       <c r="D197" s="2">
-        <v>0.3883012959267944</v>
+        <v>0.3810525130102178</v>
       </c>
       <c r="E197" s="2">
         <v>2154.851187413765</v>
@@ -5188,7 +5188,7 @@
         <v>16</v>
       </c>
       <c r="D198" s="2">
-        <v>0.3895006700186059</v>
+        <v>0.6902631839911919</v>
       </c>
       <c r="E198" s="2">
         <v>1827.555546047547</v>
@@ -5212,7 +5212,7 @@
         <v>17</v>
       </c>
       <c r="D199" s="2">
-        <v>0.3869150269310921</v>
+        <v>0.4975284180109156</v>
       </c>
       <c r="E199" s="2">
         <v>2364.207375170694</v>
@@ -5236,7 +5236,7 @@
         <v>18</v>
       </c>
       <c r="D200" s="2">
-        <v>0.3827900959877297</v>
+        <v>0.3641964809939964</v>
       </c>
       <c r="E200" s="2">
         <v>2656.026767061549</v>
@@ -5260,7 +5260,7 @@
         <v>19</v>
       </c>
       <c r="D201" s="2">
-        <v>0.3884075230453163</v>
+        <v>0.366740296012722</v>
       </c>
       <c r="E201" s="2">
         <v>1871.5725112719</v>
@@ -5284,7 +5284,7 @@
         <v>20</v>
       </c>
       <c r="D202" s="2">
-        <v>0.3903264660621062</v>
+        <v>0.3655179399938788</v>
       </c>
       <c r="E202" s="2">
         <v>1949.670656151688</v>
@@ -5308,7 +5308,7 @@
         <v>21</v>
       </c>
       <c r="D203" s="2">
-        <v>0.3882898420561105</v>
+        <v>0.3681274760019733</v>
       </c>
       <c r="E203" s="2">
         <v>1846.004003310091</v>
@@ -5332,7 +5332,7 @@
         <v>22</v>
       </c>
       <c r="D204" s="2">
-        <v>0.3888187450356781</v>
+        <v>0.3719601350021549</v>
       </c>
       <c r="E204" s="2">
         <v>1700.471375710124</v>
@@ -5356,7 +5356,7 @@
         <v>23</v>
       </c>
       <c r="D205" s="2">
-        <v>0.3894941749749705</v>
+        <v>0.369911002999288</v>
       </c>
       <c r="E205" s="2">
         <v>2429.157421160867</v>
@@ -5380,7 +5380,7 @@
         <v>24</v>
       </c>
       <c r="D206" s="2">
-        <v>0.3892848619725555</v>
+        <v>0.4017878570011817</v>
       </c>
       <c r="E206" s="2">
         <v>2124.84529359882</v>
@@ -5404,7 +5404,7 @@
         <v>25</v>
       </c>
       <c r="D207" s="2">
-        <v>0.3887287910329178</v>
+        <v>0.3916463989880867</v>
       </c>
       <c r="E207" s="2">
         <v>2012.261269172223</v>
@@ -5428,7 +5428,7 @@
         <v>26</v>
       </c>
       <c r="D208" s="2">
-        <v>0.3942323080264032</v>
+        <v>0.3975737959990511</v>
       </c>
       <c r="E208" s="2">
         <v>1790.895983535587</v>
@@ -5452,7 +5452,7 @@
         <v>27</v>
       </c>
       <c r="D209" s="2">
-        <v>0.3861990210134536</v>
+        <v>0.3854126799997175</v>
       </c>
       <c r="E209" s="2">
         <v>1920.719001820786</v>
@@ -5476,7 +5476,7 @@
         <v>28</v>
       </c>
       <c r="D210" s="2">
-        <v>0.3908513899659738</v>
+        <v>0.3728985869965982</v>
       </c>
       <c r="E210" s="2">
         <v>2608.829716344009</v>
@@ -5500,7 +5500,7 @@
         <v>29</v>
       </c>
       <c r="D211" s="2">
-        <v>0.3891234609764069</v>
+        <v>0.3639097840059549</v>
       </c>
       <c r="E211" s="2">
         <v>2182.404121155074</v>
@@ -5524,7 +5524,7 @@
         <v>30</v>
       </c>
       <c r="D212" s="2">
-        <v>0.3829437450040132</v>
+        <v>0.3704832789953798</v>
       </c>
       <c r="E212" s="2">
         <v>2386.18139303373</v>
@@ -5548,7 +5548,7 @@
         <v>31</v>
       </c>
       <c r="D213" s="2">
-        <v>0.3827437909785658</v>
+        <v>0.3783236890012631</v>
       </c>
       <c r="E213" s="2">
         <v>2058.593491977226</v>
@@ -5572,7 +5572,7 @@
         <v>1</v>
       </c>
       <c r="D214" s="2">
-        <v>0.3833354120142758</v>
+        <v>0.3768013669905486</v>
       </c>
       <c r="E214" s="2">
         <v>2179.389073061387</v>
@@ -5596,7 +5596,7 @@
         <v>2</v>
       </c>
       <c r="D215" s="2">
-        <v>0.3832397299120203</v>
+        <v>0.3685554609983228</v>
       </c>
       <c r="E215" s="2">
         <v>2282.683308507831</v>
@@ -5620,7 +5620,7 @@
         <v>3</v>
       </c>
       <c r="D216" s="2">
-        <v>0.3846306080231443</v>
+        <v>0.3833089319959981</v>
       </c>
       <c r="E216" s="2">
         <v>2284.914482011153</v>
@@ -5644,7 +5644,7 @@
         <v>4</v>
       </c>
       <c r="D217" s="2">
-        <v>0.3842990039847791</v>
+        <v>0.3893710520060267</v>
       </c>
       <c r="E217" s="2">
         <v>2316.092677750742</v>
@@ -5668,7 +5668,7 @@
         <v>5</v>
       </c>
       <c r="D218" s="2">
-        <v>0.3839205370750278</v>
+        <v>0.3742593659990234</v>
       </c>
       <c r="E218" s="2">
         <v>2443.696214528952</v>
@@ -5692,7 +5692,7 @@
         <v>6</v>
       </c>
       <c r="D219" s="2">
-        <v>0.3850293980212882</v>
+        <v>0.3828413459996227</v>
       </c>
       <c r="E219" s="2">
         <v>2214.382170322355</v>
@@ -5716,7 +5716,7 @@
         <v>7</v>
       </c>
       <c r="D220" s="2">
-        <v>0.3871793049620464</v>
+        <v>0.374275011010468</v>
       </c>
       <c r="E220" s="2">
         <v>2032.18984196933</v>
@@ -5740,7 +5740,7 @@
         <v>8</v>
       </c>
       <c r="D221" s="2">
-        <v>0.40227760898415</v>
+        <v>0.3843085639964556</v>
       </c>
       <c r="E221" s="2">
         <v>1815.785994386207</v>
@@ -5764,7 +5764,7 @@
         <v>9</v>
       </c>
       <c r="D222" s="2">
-        <v>0.383944981964305</v>
+        <v>0.3976736679906026</v>
       </c>
       <c r="E222" s="2">
         <v>1666.365689989193</v>
@@ -5788,7 +5788,7 @@
         <v>10</v>
       </c>
       <c r="D223" s="2">
-        <v>0.387075103004463</v>
+        <v>0.3913178670045454</v>
       </c>
       <c r="E223" s="2">
         <v>2611.700374025417</v>
@@ -5812,7 +5812,7 @@
         <v>11</v>
       </c>
       <c r="D224" s="2">
-        <v>0.4573023829143494</v>
+        <v>0.3804019430099288</v>
       </c>
       <c r="E224" s="2">
         <v>2519.408808503995</v>
@@ -5836,7 +5836,7 @@
         <v>12</v>
       </c>
       <c r="D225" s="2">
-        <v>0.382235910044983</v>
+        <v>0.3733253840036923</v>
       </c>
       <c r="E225" s="2">
         <v>2330.803973208133</v>
@@ -5860,7 +5860,7 @@
         <v>13</v>
       </c>
       <c r="D226" s="2">
-        <v>0.3871944610727951</v>
+        <v>0.3703000859968597</v>
       </c>
       <c r="E226" s="2">
         <v>2644.608815788594</v>
@@ -5884,7 +5884,7 @@
         <v>14</v>
       </c>
       <c r="D227" s="2">
-        <v>0.38293145399075</v>
+        <v>0.3820869250048418</v>
       </c>
       <c r="E227" s="2">
         <v>1712.162199308163</v>
@@ -5908,7 +5908,7 @@
         <v>15</v>
       </c>
       <c r="D228" s="2">
-        <v>0.3839327599853277</v>
+        <v>0.3764726240042364</v>
       </c>
       <c r="E228" s="2">
         <v>1779.929572513537</v>
@@ -5932,7 +5932,7 @@
         <v>16</v>
       </c>
       <c r="D229" s="2">
-        <v>0.3969623129814863</v>
+        <v>0.3810907840088475</v>
       </c>
       <c r="E229" s="2">
         <v>1819.632828518819</v>
@@ -5956,7 +5956,7 @@
         <v>17</v>
       </c>
       <c r="D230" s="2">
-        <v>0.3843397919554263</v>
+        <v>0.3650882780057145</v>
       </c>
       <c r="E230" s="2">
         <v>2535.381656937599</v>
@@ -5980,7 +5980,7 @@
         <v>18</v>
       </c>
       <c r="D231" s="2">
-        <v>0.3832949049538001</v>
+        <v>0.3757381070026895</v>
       </c>
       <c r="E231" s="2">
         <v>2204.477399209422</v>
@@ -6004,7 +6004,7 @@
         <v>19</v>
       </c>
       <c r="D232" s="2">
-        <v>0.3843735950067639</v>
+        <v>0.3881291400030022</v>
       </c>
       <c r="E232" s="2">
         <v>1836.120126813968</v>
@@ -6028,7 +6028,7 @@
         <v>20</v>
       </c>
       <c r="D233" s="2">
-        <v>0.381554474006407</v>
+        <v>0.3769303610024508</v>
       </c>
       <c r="E233" s="2">
         <v>2293.287501067519</v>
@@ -6052,7 +6052,7 @@
         <v>21</v>
       </c>
       <c r="D234" s="2">
-        <v>0.3834197099786252</v>
+        <v>0.3590760240040254</v>
       </c>
       <c r="E234" s="2">
         <v>2310.806081073111</v>
@@ -6076,7 +6076,7 @@
         <v>22</v>
       </c>
       <c r="D235" s="2">
-        <v>0.3987153839552775</v>
+        <v>0.3870878820016515</v>
       </c>
       <c r="E235" s="2">
         <v>2546.014669910183</v>
@@ -6100,7 +6100,7 @@
         <v>23</v>
       </c>
       <c r="D236" s="2">
-        <v>0.3836929970420897</v>
+        <v>0.3871076469949912</v>
       </c>
       <c r="E236" s="2">
         <v>2470.904710041427</v>
@@ -6124,7 +6124,7 @@
         <v>24</v>
       </c>
       <c r="D237" s="2">
-        <v>0.3854517959989607</v>
+        <v>0.3749998190032784</v>
       </c>
       <c r="E237" s="2">
         <v>2017.228708030255</v>
@@ -6148,7 +6148,7 @@
         <v>25</v>
       </c>
       <c r="D238" s="2">
-        <v>0.384867019020021</v>
+        <v>0.3749603589967592</v>
       </c>
       <c r="E238" s="2">
         <v>1711.985564225213</v>
@@ -6172,7 +6172,7 @@
         <v>26</v>
       </c>
       <c r="D239" s="2">
-        <v>0.3935102260438725</v>
+        <v>0.3815080130007118</v>
       </c>
       <c r="E239" s="2">
         <v>2266.342076156299</v>
@@ -6196,7 +6196,7 @@
         <v>27</v>
       </c>
       <c r="D240" s="2">
-        <v>0.3873750689672306</v>
+        <v>0.400603353002225</v>
       </c>
       <c r="E240" s="2">
         <v>2583.244586784071</v>
@@ -6220,7 +6220,7 @@
         <v>28</v>
       </c>
       <c r="D241" s="2">
-        <v>0.3842160339700058</v>
+        <v>0.3980686880095163</v>
       </c>
       <c r="E241" s="2">
         <v>2313.875495316014</v>
@@ -6244,7 +6244,7 @@
         <v>29</v>
       </c>
       <c r="D242" s="2">
-        <v>0.386593203060329</v>
+        <v>0.3888913840055466</v>
       </c>
       <c r="E242" s="2">
         <v>2360.045776833543</v>
@@ -6268,7 +6268,7 @@
         <v>30</v>
       </c>
       <c r="D243" s="2">
-        <v>0.3837693328969181</v>
+        <v>0.3616949179995572</v>
       </c>
       <c r="E243" s="2">
         <v>2186.202086518578</v>
@@ -6292,7 +6292,7 @@
         <v>31</v>
       </c>
       <c r="D244" s="2">
-        <v>0.3872335019987077</v>
+        <v>0.360359279991826</v>
       </c>
       <c r="E244" s="2">
         <v>2245.4597768131</v>
@@ -6316,7 +6316,7 @@
         <v>1</v>
       </c>
       <c r="D245" s="2">
-        <v>0.3871890139998868</v>
+        <v>0.3658468189969426</v>
       </c>
       <c r="E245" s="2">
         <v>2887.107827908604</v>
@@ -6340,7 +6340,7 @@
         <v>2</v>
       </c>
       <c r="D246" s="2">
-        <v>0.3867488070391119</v>
+        <v>0.3890290389972506</v>
       </c>
       <c r="E246" s="2">
         <v>2013.835153074206</v>
@@ -6364,7 +6364,7 @@
         <v>3</v>
       </c>
       <c r="D247" s="2">
-        <v>0.3883762360783294</v>
+        <v>0.3847094499942614</v>
       </c>
       <c r="E247" s="2">
         <v>2406.895924405408</v>
@@ -6388,7 +6388,7 @@
         <v>4</v>
       </c>
       <c r="D248" s="2">
-        <v>0.3816285760840401</v>
+        <v>0.3844256860029418</v>
       </c>
       <c r="E248" s="2">
         <v>2394.214099020252</v>
@@ -6412,7 +6412,7 @@
         <v>5</v>
       </c>
       <c r="D249" s="2">
-        <v>0.3851652399171144</v>
+        <v>0.4189719989954028</v>
       </c>
       <c r="E249" s="2">
         <v>2591.284879766414</v>
@@ -6436,7 +6436,7 @@
         <v>6</v>
       </c>
       <c r="D250" s="2">
-        <v>0.3960177870467305</v>
+        <v>0.3560373159998562</v>
       </c>
       <c r="E250" s="2">
         <v>1786.793949664671</v>
@@ -6460,7 +6460,7 @@
         <v>7</v>
       </c>
       <c r="D251" s="2">
-        <v>0.3840646200114861</v>
+        <v>0.3799822680011857</v>
       </c>
       <c r="E251" s="2">
         <v>2547.822082559145</v>
@@ -6484,7 +6484,7 @@
         <v>8</v>
       </c>
       <c r="D252" s="2">
-        <v>0.3855697569670156</v>
+        <v>0.3744241899985354</v>
       </c>
       <c r="E252" s="2">
         <v>2334.63010603704</v>
@@ -6508,7 +6508,7 @@
         <v>9</v>
       </c>
       <c r="D253" s="2">
-        <v>0.3862634151009843</v>
+        <v>0.3756431929941755</v>
       </c>
       <c r="E253" s="2">
         <v>1800.364545545586</v>
@@ -6532,7 +6532,7 @@
         <v>10</v>
       </c>
       <c r="D254" s="2">
-        <v>0.3818773489911109</v>
+        <v>0.6337095089984359</v>
       </c>
       <c r="E254" s="2">
         <v>1356.403336857777</v>
@@ -6556,7 +6556,7 @@
         <v>11</v>
       </c>
       <c r="D255" s="2">
-        <v>0.421377229038626</v>
+        <v>0.3574311999982456</v>
       </c>
       <c r="E255" s="2">
         <v>2039.585725477654</v>
@@ -6580,7 +6580,7 @@
         <v>12</v>
       </c>
       <c r="D256" s="2">
-        <v>0.3962177420035005</v>
+        <v>0.3615916920098243</v>
       </c>
       <c r="E256" s="2">
         <v>2340.70951623293</v>
@@ -6604,7 +6604,7 @@
         <v>13</v>
       </c>
       <c r="D257" s="2">
-        <v>0.3861096260370687</v>
+        <v>0.4471606929873815</v>
       </c>
       <c r="E257" s="2">
         <v>1916.751607545592</v>
@@ -6628,7 +6628,7 @@
         <v>14</v>
       </c>
       <c r="D258" s="2">
-        <v>0.383844900992699</v>
+        <v>0.3712193999963347</v>
       </c>
       <c r="E258" s="2">
         <v>1905.224578206205</v>
@@ -6652,7 +6652,7 @@
         <v>15</v>
       </c>
       <c r="D259" s="2">
-        <v>0.3979728389531374</v>
+        <v>0.3731856999947922</v>
       </c>
       <c r="E259" s="2">
         <v>1756.007477462088</v>
@@ -6676,7 +6676,7 @@
         <v>16</v>
       </c>
       <c r="D260" s="2">
-        <v>0.3808145829243585</v>
+        <v>0.3741589339915663</v>
       </c>
       <c r="E260" s="2">
         <v>2271.327177602541</v>
@@ -6700,7 +6700,7 @@
         <v>17</v>
       </c>
       <c r="D261" s="2">
-        <v>0.3813957269303501</v>
+        <v>0.3670501779997721</v>
       </c>
       <c r="E261" s="2">
         <v>2137.867484809065</v>
@@ -6724,7 +6724,7 @@
         <v>18</v>
       </c>
       <c r="D262" s="2">
-        <v>0.3845452640671283</v>
+        <v>0.3948055100045167</v>
       </c>
       <c r="E262" s="2">
         <v>1874.000301052681</v>
@@ -6748,7 +6748,7 @@
         <v>19</v>
       </c>
       <c r="D263" s="2">
-        <v>0.4021940120728686</v>
+        <v>0.3903261240047868</v>
       </c>
       <c r="E263" s="2">
         <v>1936.641943992453</v>
@@ -6772,7 +6772,7 @@
         <v>20</v>
       </c>
       <c r="D264" s="2">
-        <v>0.3829348069848493</v>
+        <v>0.3827376309927786</v>
       </c>
       <c r="E264" s="2">
         <v>1661.106237777533</v>
@@ -6796,7 +6796,7 @@
         <v>21</v>
       </c>
       <c r="D265" s="2">
-        <v>0.3859187520574778</v>
+        <v>0.4298083019966725</v>
       </c>
       <c r="E265" s="2">
         <v>2058.297166045912</v>
@@ -6820,7 +6820,7 @@
         <v>22</v>
       </c>
       <c r="D266" s="2">
-        <v>0.3900952950352803</v>
+        <v>0.4107454370096093</v>
       </c>
       <c r="E266" s="2">
         <v>2517.582538207953</v>
@@ -6844,7 +6844,7 @@
         <v>23</v>
       </c>
       <c r="D267" s="2">
-        <v>0.3860048649366945</v>
+        <v>0.3900173570000334</v>
       </c>
       <c r="E267" s="2">
         <v>1756.548310997544</v>
@@ -6868,7 +6868,7 @@
         <v>24</v>
       </c>
       <c r="D268" s="2">
-        <v>0.3871104440186173</v>
+        <v>0.388160426999093</v>
       </c>
       <c r="E268" s="2">
         <v>2504.314441513868</v>
@@ -6892,7 +6892,7 @@
         <v>25</v>
       </c>
       <c r="D269" s="2">
-        <v>0.3845529470127076</v>
+        <v>0.3744383669982199</v>
       </c>
       <c r="E269" s="2">
         <v>1913.677933301946</v>
@@ -6916,7 +6916,7 @@
         <v>26</v>
       </c>
       <c r="D270" s="2">
-        <v>0.3822542791021988</v>
+        <v>0.4575830499961739</v>
       </c>
       <c r="E270" s="2">
         <v>1849.163631989038</v>
@@ -6940,7 +6940,7 @@
         <v>27</v>
       </c>
       <c r="D271" s="2">
-        <v>0.3887908810283989</v>
+        <v>0.375544506998267</v>
       </c>
       <c r="E271" s="2">
         <v>2148.065827749961</v>
@@ -6964,7 +6964,7 @@
         <v>28</v>
       </c>
       <c r="D272" s="2">
-        <v>0.3839719420066103</v>
+        <v>0.3730488809960661</v>
       </c>
       <c r="E272" s="2">
         <v>2468.356661599367</v>
@@ -6988,7 +6988,7 @@
         <v>29</v>
       </c>
       <c r="D273" s="2">
-        <v>0.3850891140755266</v>
+        <v>0.3725047509942669</v>
       </c>
       <c r="E273" s="2">
         <v>2531.59524849935</v>
@@ -7012,7 +7012,7 @@
         <v>30</v>
       </c>
       <c r="D274" s="2">
-        <v>0.4005077780457214</v>
+        <v>0.3636055539973313</v>
       </c>
       <c r="E274" s="2">
         <v>2464.65609890334</v>
@@ -7036,7 +7036,7 @@
         <v>1</v>
       </c>
       <c r="D275" s="2">
-        <v>0.3918336309725419</v>
+        <v>0.3767746140074451</v>
       </c>
       <c r="E275" s="2">
         <v>1745.773051017158</v>
@@ -7060,7 +7060,7 @@
         <v>2</v>
       </c>
       <c r="D276" s="2">
-        <v>0.3959266460733488</v>
+        <v>0.3676530429947888</v>
       </c>
       <c r="E276" s="2">
         <v>2246.5846782403</v>
@@ -7084,7 +7084,7 @@
         <v>3</v>
       </c>
       <c r="D277" s="2">
-        <v>0.3908597029512748</v>
+        <v>0.3743059469998116</v>
       </c>
       <c r="E277" s="2">
         <v>2325.84333953781</v>
@@ -7108,7 +7108,7 @@
         <v>4</v>
       </c>
       <c r="D278" s="2">
-        <v>0.3909870930947363</v>
+        <v>0.3756031030061422</v>
       </c>
       <c r="E278" s="2">
         <v>1926.783785231637</v>
@@ -7132,7 +7132,7 @@
         <v>5</v>
       </c>
       <c r="D279" s="2">
-        <v>0.4044581790221855</v>
+        <v>0.3695227540010819</v>
       </c>
       <c r="E279" s="2">
         <v>1937.615442270605</v>
@@ -7156,7 +7156,7 @@
         <v>6</v>
       </c>
       <c r="D280" s="2">
-        <v>0.3850444150157273</v>
+        <v>0.3653391440020641</v>
       </c>
       <c r="E280" s="2">
         <v>2610.80447379722</v>
@@ -7180,7 +7180,7 @@
         <v>7</v>
       </c>
       <c r="D281" s="2">
-        <v>0.3859368399716914</v>
+        <v>0.3627735390036833</v>
       </c>
       <c r="E281" s="2">
         <v>2355.186850688548</v>
@@ -7204,7 +7204,7 @@
         <v>8</v>
       </c>
       <c r="D282" s="2">
-        <v>0.3878050789935514</v>
+        <v>0.3702717280102661</v>
       </c>
       <c r="E282" s="2">
         <v>2298.833648777946</v>
@@ -7228,7 +7228,7 @@
         <v>9</v>
       </c>
       <c r="D283" s="2">
-        <v>0.4082243379671127</v>
+        <v>0.398208156999317</v>
       </c>
       <c r="E283" s="2">
         <v>2169.154944538893</v>
@@ -7252,7 +7252,7 @@
         <v>10</v>
       </c>
       <c r="D284" s="2">
-        <v>0.3885530040133744</v>
+        <v>0.380860445991857</v>
       </c>
       <c r="E284" s="2">
         <v>2301.377884614212</v>
@@ -7276,7 +7276,7 @@
         <v>11</v>
       </c>
       <c r="D285" s="2">
-        <v>0.3914034129120409</v>
+        <v>0.3771875829988858</v>
       </c>
       <c r="E285" s="2">
         <v>2125.907481037008</v>
@@ -7300,7 +7300,7 @@
         <v>12</v>
       </c>
       <c r="D286" s="2">
-        <v>0.3826284860260785</v>
+        <v>0.3910350779915461</v>
       </c>
       <c r="E286" s="2">
         <v>2215.168984016766</v>
@@ -7324,7 +7324,7 @@
         <v>13</v>
       </c>
       <c r="D287" s="2">
-        <v>0.3814184259390458</v>
+        <v>0.3839886200003093</v>
       </c>
       <c r="E287" s="2">
         <v>2643.624993531228</v>
@@ -7348,7 +7348,7 @@
         <v>14</v>
       </c>
       <c r="D288" s="2">
-        <v>0.3863944370532408</v>
+        <v>0.3637920980108902</v>
       </c>
       <c r="E288" s="2">
         <v>2038.14769899266</v>
@@ -7372,7 +7372,7 @@
         <v>15</v>
       </c>
       <c r="D289" s="2">
-        <v>0.3933537849225104</v>
+        <v>0.3613155400089454</v>
       </c>
       <c r="E289" s="2">
         <v>2072.168445922607</v>
@@ -7396,7 +7396,7 @@
         <v>16</v>
       </c>
       <c r="D290" s="2">
-        <v>0.3858406000072137</v>
+        <v>0.3845017410058063</v>
       </c>
       <c r="E290" s="2">
         <v>2108.126807920568</v>
@@ -7420,7 +7420,7 @@
         <v>17</v>
       </c>
       <c r="D291" s="2">
-        <v>0.391660007997416</v>
+        <v>0.3982906390010612</v>
       </c>
       <c r="E291" s="2">
         <v>2348.204411172897</v>
@@ -7444,7 +7444,7 @@
         <v>18</v>
       </c>
       <c r="D292" s="2">
-        <v>0.3904016179731116</v>
+        <v>0.3929031820007367</v>
       </c>
       <c r="E292" s="2">
         <v>1954.88074961617</v>
@@ -7468,7 +7468,7 @@
         <v>19</v>
       </c>
       <c r="D293" s="2">
-        <v>0.3907892339630052</v>
+        <v>0.3652033029939048</v>
       </c>
       <c r="E293" s="2">
         <v>2034.093970895244</v>
@@ -7492,7 +7492,7 @@
         <v>20</v>
       </c>
       <c r="D294" s="2">
-        <v>0.3904579789377749</v>
+        <v>0.362900788008119</v>
       </c>
       <c r="E294" s="2">
         <v>2042.646494310696</v>
@@ -7516,7 +7516,7 @@
         <v>21</v>
       </c>
       <c r="D295" s="2">
-        <v>0.3969139149412513</v>
+        <v>0.3959119969949825</v>
       </c>
       <c r="E295" s="2">
         <v>2846.442758210821</v>
@@ -7540,7 +7540,7 @@
         <v>22</v>
       </c>
       <c r="D296" s="2">
-        <v>0.4034966820618138</v>
+        <v>0.3899616229900857</v>
       </c>
       <c r="E296" s="2">
         <v>2796.555371408181</v>
@@ -7564,7 +7564,7 @@
         <v>23</v>
       </c>
       <c r="D297" s="2">
-        <v>0.389252249035053</v>
+        <v>0.3684921809908701</v>
       </c>
       <c r="E297" s="2">
         <v>2095.085863011488</v>
@@ -7588,7 +7588,7 @@
         <v>24</v>
       </c>
       <c r="D298" s="2">
-        <v>0.393114230944775</v>
+        <v>0.3757438309985446</v>
       </c>
       <c r="E298" s="2">
         <v>2539.530994316101</v>
@@ -7612,7 +7612,7 @@
         <v>25</v>
       </c>
       <c r="D299" s="2">
-        <v>0.3896450339816511</v>
+        <v>0.3738585460087052</v>
       </c>
       <c r="E299" s="2">
         <v>2344.009541115947</v>
@@ -7636,7 +7636,7 @@
         <v>26</v>
       </c>
       <c r="D300" s="2">
-        <v>0.3868301729671657</v>
+        <v>0.3752676559961401</v>
       </c>
       <c r="E300" s="2">
         <v>2886.528429249402</v>
@@ -7660,7 +7660,7 @@
         <v>27</v>
       </c>
       <c r="D301" s="2">
-        <v>0.3864037959137931</v>
+        <v>0.3751238529948751</v>
       </c>
       <c r="E301" s="2">
         <v>2093.176123176865</v>
@@ -7684,7 +7684,7 @@
         <v>28</v>
       </c>
       <c r="D302" s="2">
-        <v>0.4159617120167241</v>
+        <v>0.3755586829938693</v>
       </c>
       <c r="E302" s="2">
         <v>2397.866319733751</v>
@@ -7708,7 +7708,7 @@
         <v>29</v>
       </c>
       <c r="D303" s="2">
-        <v>0.3898582579568028</v>
+        <v>0.3659779079898726</v>
       </c>
       <c r="E303" s="2">
         <v>2697.802819118508</v>
@@ -7732,7 +7732,7 @@
         <v>30</v>
       </c>
       <c r="D304" s="2">
-        <v>0.3848528439411893</v>
+        <v>0.369423577998532</v>
       </c>
       <c r="E304" s="2">
         <v>2394.455876793117</v>
@@ -7756,7 +7756,7 @@
         <v>31</v>
       </c>
       <c r="D305" s="2">
-        <v>0.3816299040336162</v>
+        <v>0.3712176510016434</v>
       </c>
       <c r="E305" s="2">
         <v>2413.544248832943</v>
@@ -7780,7 +7780,7 @@
         <v>1</v>
       </c>
       <c r="D306" s="2">
-        <v>0.3832083740271628</v>
+        <v>0.3713833840010921</v>
       </c>
       <c r="E306" s="2">
         <v>2550.477392062238</v>
@@ -7804,7 +7804,7 @@
         <v>2</v>
       </c>
       <c r="D307" s="2">
-        <v>0.3864616239443421</v>
+        <v>0.3848630260035861</v>
       </c>
       <c r="E307" s="2">
         <v>2803.568025817258</v>
@@ -7828,7 +7828,7 @@
         <v>3</v>
       </c>
       <c r="D308" s="2">
-        <v>0.3855526479892433</v>
+        <v>0.361376510001719</v>
       </c>
       <c r="E308" s="2">
         <v>2073.297524583329</v>
@@ -7852,7 +7852,7 @@
         <v>4</v>
       </c>
       <c r="D309" s="2">
-        <v>0.3868196979165077</v>
+        <v>0.3779323649941944</v>
       </c>
       <c r="E309" s="2">
         <v>2133.790139593566</v>
@@ -7876,7 +7876,7 @@
         <v>5</v>
       </c>
       <c r="D310" s="2">
-        <v>0.385622767964378</v>
+        <v>0.3570690030028345</v>
       </c>
       <c r="E310" s="2">
         <v>2148.287884216187</v>
@@ -7900,7 +7900,7 @@
         <v>6</v>
       </c>
       <c r="D311" s="2">
-        <v>0.3807272129924968</v>
+        <v>0.380619284012937</v>
       </c>
       <c r="E311" s="2">
         <v>1420.527062325168</v>
@@ -7924,7 +7924,7 @@
         <v>7</v>
       </c>
       <c r="D312" s="2">
-        <v>0.4118961450876668</v>
+        <v>0.3640725779987406</v>
       </c>
       <c r="E312" s="2">
         <v>2103.994111258195</v>
@@ -7948,7 +7948,7 @@
         <v>8</v>
       </c>
       <c r="D313" s="2">
-        <v>0.3850783600937575</v>
+        <v>0.3748445590026677</v>
       </c>
       <c r="E313" s="2">
         <v>2174.235817792049</v>
@@ -7972,7 +7972,7 @@
         <v>9</v>
       </c>
       <c r="D314" s="2">
-        <v>0.3844411330064759</v>
+        <v>0.3623154509987216</v>
       </c>
       <c r="E314" s="2">
         <v>2174.726369959498</v>
@@ -7996,7 +7996,7 @@
         <v>10</v>
       </c>
       <c r="D315" s="2">
-        <v>0.399299884098582</v>
+        <v>0.3851328220043797</v>
       </c>
       <c r="E315" s="2">
         <v>1866.454949582233</v>
@@ -8020,7 +8020,7 @@
         <v>11</v>
       </c>
       <c r="D316" s="2">
-        <v>0.3838286299724132</v>
+        <v>0.3631505380035378</v>
       </c>
       <c r="E316" s="2">
         <v>1974.800587649799</v>
@@ -8044,7 +8044,7 @@
         <v>12</v>
       </c>
       <c r="D317" s="2">
-        <v>0.4003244469640777</v>
+        <v>0.3685095000109868</v>
       </c>
       <c r="E317" s="2">
         <v>1982.5924691358</v>
@@ -8068,7 +8068,7 @@
         <v>13</v>
       </c>
       <c r="D318" s="2">
-        <v>0.3875329119618982</v>
+        <v>0.3558232500072336</v>
       </c>
       <c r="E318" s="2">
         <v>3116.188234106302</v>
@@ -8092,7 +8092,7 @@
         <v>14</v>
       </c>
       <c r="D319" s="2">
-        <v>0.3886486870469525</v>
+        <v>0.3681649749923963</v>
       </c>
       <c r="E319" s="2">
         <v>2513.791558419536</v>
@@ -8116,7 +8116,7 @@
         <v>15</v>
       </c>
       <c r="D320" s="2">
-        <v>0.4008773069363087</v>
+        <v>0.3611015459900955</v>
       </c>
       <c r="E320" s="2">
         <v>2487.31334316543</v>
@@ -8140,7 +8140,7 @@
         <v>16</v>
       </c>
       <c r="D321" s="2">
-        <v>0.3873638969380409</v>
+        <v>0.3627660640049726</v>
       </c>
       <c r="E321" s="2">
         <v>2155.624920371579</v>
@@ -8164,7 +8164,7 @@
         <v>17</v>
       </c>
       <c r="D322" s="2">
-        <v>0.3847627500072122</v>
+        <v>0.3762633070000447</v>
       </c>
       <c r="E322" s="2">
         <v>1956.598980337665</v>
@@ -8188,7 +8188,7 @@
         <v>18</v>
       </c>
       <c r="D323" s="2">
-        <v>0.3831856769975275</v>
+        <v>0.3650194100046065</v>
       </c>
       <c r="E323" s="2">
         <v>2033.762385808418</v>
@@ -8212,7 +8212,7 @@
         <v>19</v>
       </c>
       <c r="D324" s="2">
-        <v>0.3891050959937274</v>
+        <v>0.382378295995295</v>
       </c>
       <c r="E324" s="2">
         <v>1790.692173145078</v>
@@ -8236,7 +8236,7 @@
         <v>20</v>
       </c>
       <c r="D325" s="2">
-        <v>0.3907840669853613</v>
+        <v>0.3593093580129789</v>
       </c>
       <c r="E325" s="2">
         <v>2528.124222885363</v>
@@ -8260,7 +8260,7 @@
         <v>21</v>
       </c>
       <c r="D326" s="2">
-        <v>0.3851380730047822</v>
+        <v>0.3691858390084235</v>
       </c>
       <c r="E326" s="2">
         <v>2288.211181279053</v>
@@ -8284,7 +8284,7 @@
         <v>22</v>
       </c>
       <c r="D327" s="2">
-        <v>0.3884662629570812</v>
+        <v>0.3974067300005117</v>
       </c>
       <c r="E327" s="2">
         <v>2139.448375543241</v>
@@ -8308,7 +8308,7 @@
         <v>23</v>
       </c>
       <c r="D328" s="2">
-        <v>0.3957132840296254</v>
+        <v>0.3574643010069849</v>
       </c>
       <c r="E328" s="2">
         <v>2143.470854204716</v>
@@ -8332,7 +8332,7 @@
         <v>24</v>
       </c>
       <c r="D329" s="2">
-        <v>0.3838684390066192</v>
+        <v>0.3703051790071186</v>
       </c>
       <c r="E329" s="2">
         <v>2346.560229424262</v>
@@ -8356,7 +8356,7 @@
         <v>25</v>
       </c>
       <c r="D330" s="2">
-        <v>0.3875852219061926</v>
+        <v>0.3822041130042635</v>
       </c>
       <c r="E330" s="2">
         <v>2540.480100456501</v>
@@ -8380,7 +8380,7 @@
         <v>26</v>
       </c>
       <c r="D331" s="2">
-        <v>0.3831941270036623</v>
+        <v>0.3576572019956075</v>
       </c>
       <c r="E331" s="2">
         <v>2642.413305597452</v>
@@ -8404,7 +8404,7 @@
         <v>27</v>
       </c>
       <c r="D332" s="2">
-        <v>0.389493619906716</v>
+        <v>0.3930047280009603</v>
       </c>
       <c r="E332" s="2">
         <v>1874.463672395679</v>
@@ -8428,7 +8428,7 @@
         <v>28</v>
       </c>
       <c r="D333" s="2">
-        <v>0.3864702850114554</v>
+        <v>0.3696607569872867</v>
       </c>
       <c r="E333" s="2">
         <v>2746.67888380407</v>
@@ -8452,7 +8452,7 @@
         <v>29</v>
       </c>
       <c r="D334" s="2">
-        <v>0.3904537199996412</v>
+        <v>0.3797822390042711</v>
       </c>
       <c r="E334" s="2">
         <v>2520.968368639324</v>
@@ -8476,7 +8476,7 @@
         <v>30</v>
       </c>
       <c r="D335" s="2">
-        <v>0.3838727000402287</v>
+        <v>0.3762957819999428</v>
       </c>
       <c r="E335" s="2">
         <v>2821.031656368112</v>
@@ -8500,7 +8500,7 @@
         <v>1</v>
       </c>
       <c r="D336" s="2">
-        <v>0.4074727140832692</v>
+        <v>0.3743477789976168</v>
       </c>
       <c r="E336" s="2">
         <v>2292.151148569029</v>
@@ -8524,7 +8524,7 @@
         <v>2</v>
       </c>
       <c r="D337" s="2">
-        <v>0.3971485110232607</v>
+        <v>0.3754844399954891</v>
       </c>
       <c r="E337" s="2">
         <v>2070.184153163144</v>
@@ -8548,7 +8548,7 @@
         <v>3</v>
       </c>
       <c r="D338" s="2">
-        <v>0.3898242459399626</v>
+        <v>0.3657166310003959</v>
       </c>
       <c r="E338" s="2">
         <v>2101.533017466671</v>
@@ -8572,7 +8572,7 @@
         <v>4</v>
       </c>
       <c r="D339" s="2">
-        <v>0.3880388379329816</v>
+        <v>0.3732199189980747</v>
       </c>
       <c r="E339" s="2">
         <v>2775.48311906452</v>
@@ -8596,7 +8596,7 @@
         <v>5</v>
       </c>
       <c r="D340" s="2">
-        <v>0.3865172190126032</v>
+        <v>0.3773555469961138</v>
       </c>
       <c r="E340" s="2">
         <v>1567.818246447065</v>
@@ -8620,7 +8620,7 @@
         <v>6</v>
       </c>
       <c r="D341" s="2">
-        <v>0.3927726409165189</v>
+        <v>0.4359597449947614</v>
       </c>
       <c r="E341" s="2">
         <v>2859.278216211675</v>
@@ -8644,7 +8644,7 @@
         <v>7</v>
       </c>
       <c r="D342" s="2">
-        <v>0.4935981859453022</v>
+        <v>0.3669495329959318</v>
       </c>
       <c r="E342" s="2">
         <v>2120.579599003091</v>
@@ -8668,7 +8668,7 @@
         <v>8</v>
       </c>
       <c r="D343" s="2">
-        <v>0.4039675489766523</v>
+        <v>0.3808957129949704</v>
       </c>
       <c r="E343" s="2">
         <v>2046.001031995617</v>
@@ -8692,7 +8692,7 @@
         <v>9</v>
       </c>
       <c r="D344" s="2">
-        <v>0.3825525710126385</v>
+        <v>0.5076551289967028</v>
       </c>
       <c r="E344" s="2">
         <v>2478.759343790518</v>
@@ -8716,7 +8716,7 @@
         <v>10</v>
       </c>
       <c r="D345" s="2">
-        <v>0.389558642054908</v>
+        <v>0.3733567369927187</v>
       </c>
       <c r="E345" s="2">
         <v>2022.565606640633</v>
@@ -8740,7 +8740,7 @@
         <v>11</v>
       </c>
       <c r="D346" s="2">
-        <v>0.3908613109961152</v>
+        <v>0.3740062569995644</v>
       </c>
       <c r="E346" s="2">
         <v>2594.355465694332</v>
@@ -8764,7 +8764,7 @@
         <v>12</v>
       </c>
       <c r="D347" s="2">
-        <v>0.387384710018523</v>
+        <v>0.3722264310054015</v>
       </c>
       <c r="E347" s="2">
         <v>2492.088328115245</v>
@@ -8788,7 +8788,7 @@
         <v>13</v>
       </c>
       <c r="D348" s="2">
-        <v>0.3838622940238565</v>
+        <v>0.381436700001359</v>
       </c>
       <c r="E348" s="2">
         <v>2768.85535446622</v>
@@ -8812,7 +8812,7 @@
         <v>14</v>
       </c>
       <c r="D349" s="2">
-        <v>0.3912693199235946</v>
+        <v>0.3981716970010893</v>
       </c>
       <c r="E349" s="2">
         <v>2457.131096596207</v>
@@ -8836,7 +8836,7 @@
         <v>15</v>
       </c>
       <c r="D350" s="2">
-        <v>0.3908008289290592</v>
+        <v>0.3735946140077431</v>
       </c>
       <c r="E350" s="2">
         <v>2917.600163431559</v>
@@ -8860,7 +8860,7 @@
         <v>16</v>
       </c>
       <c r="D351" s="2">
-        <v>0.3885114500299096</v>
+        <v>0.3611733410070883</v>
       </c>
       <c r="E351" s="2">
         <v>2465.529689350901</v>
@@ -8884,7 +8884,7 @@
         <v>17</v>
       </c>
       <c r="D352" s="2">
-        <v>0.3819103160640225</v>
+        <v>0.3628039860050194</v>
       </c>
       <c r="E352" s="2">
         <v>2036.974169322242</v>
@@ -8908,7 +8908,7 @@
         <v>18</v>
       </c>
       <c r="D353" s="2">
-        <v>0.3889112189644948</v>
+        <v>0.3605521749996115</v>
       </c>
       <c r="E353" s="2">
         <v>2101.488835819664</v>
@@ -8932,7 +8932,7 @@
         <v>19</v>
       </c>
       <c r="D354" s="2">
-        <v>0.3882424240000546</v>
+        <v>0.3693177679961082</v>
       </c>
       <c r="E354" s="2">
         <v>2233.961218290029</v>
@@ -8956,7 +8956,7 @@
         <v>20</v>
       </c>
       <c r="D355" s="2">
-        <v>0.3869616150623187</v>
+        <v>0.3707356769882608</v>
       </c>
       <c r="E355" s="2">
         <v>2422.65477233582</v>
@@ -8980,7 +8980,7 @@
         <v>21</v>
       </c>
       <c r="D356" s="2">
-        <v>0.3849967160494998</v>
+        <v>0.4068650730041554</v>
       </c>
       <c r="E356" s="2">
         <v>2695.900780095736</v>
@@ -9004,7 +9004,7 @@
         <v>22</v>
       </c>
       <c r="D357" s="2">
-        <v>0.3844497250393033</v>
+        <v>0.3914117259992054</v>
       </c>
       <c r="E357" s="2">
         <v>2120.598037190501</v>
@@ -9028,7 +9028,7 @@
         <v>23</v>
       </c>
       <c r="D358" s="2">
-        <v>0.4002953249728307</v>
+        <v>0.3666095470107393</v>
       </c>
       <c r="E358" s="2">
         <v>1975.400320893314</v>
@@ -9052,7 +9052,7 @@
         <v>24</v>
       </c>
       <c r="D359" s="2">
-        <v>0.3853413810720667</v>
+        <v>0.3802443759923335</v>
       </c>
       <c r="E359" s="2">
         <v>2196.411681006276</v>
@@ -9076,7 +9076,7 @@
         <v>25</v>
       </c>
       <c r="D360" s="2">
-        <v>0.3959417340811342</v>
+        <v>0.3590774150070501</v>
       </c>
       <c r="E360" s="2">
         <v>1958.521513233835</v>
@@ -9100,7 +9100,7 @@
         <v>26</v>
       </c>
       <c r="D361" s="2">
-        <v>0.3847004520939663</v>
+        <v>0.3859016980131855</v>
       </c>
       <c r="E361" s="2">
         <v>2288.167940638723</v>
@@ -9124,7 +9124,7 @@
         <v>27</v>
       </c>
       <c r="D362" s="2">
-        <v>0.3819684940390289</v>
+        <v>0.378854611000861</v>
       </c>
       <c r="E362" s="2">
         <v>2278.652685951822</v>
@@ -9148,7 +9148,7 @@
         <v>28</v>
       </c>
       <c r="D363" s="2">
-        <v>0.3852562450338155</v>
+        <v>0.3731456069945125</v>
       </c>
       <c r="E363" s="2">
         <v>2218.712860994154</v>
@@ -9172,7 +9172,7 @@
         <v>29</v>
       </c>
       <c r="D364" s="2">
-        <v>0.3861807269277051</v>
+        <v>0.3665119090001099</v>
       </c>
       <c r="E364" s="2">
         <v>2099.477696045723</v>
@@ -9196,7 +9196,7 @@
         <v>30</v>
       </c>
       <c r="D365" s="2">
-        <v>0.3884460099507123</v>
+        <v>0.4033395729929907</v>
       </c>
       <c r="E365" s="2">
         <v>1825.298323391744</v>
@@ -9220,7 +9220,7 @@
         <v>1</v>
       </c>
       <c r="D366" s="2">
-        <v>0.3871827319962904</v>
+        <v>0.3909143889904954</v>
       </c>
       <c r="E366" s="2">
         <v>2141.096714178388</v>
@@ -9244,7 +9244,7 @@
         <v>2</v>
       </c>
       <c r="D367" s="2">
-        <v>0.3914920429233462</v>
+        <v>0.3770170979987597</v>
       </c>
       <c r="E367" s="2">
         <v>2129.845562978825</v>
@@ -9268,7 +9268,7 @@
         <v>3</v>
       </c>
       <c r="D368" s="2">
-        <v>0.3877463459502906</v>
+        <v>0.3649206540139858</v>
       </c>
       <c r="E368" s="2">
         <v>2604.148407168685</v>
@@ -9292,7 +9292,7 @@
         <v>4</v>
       </c>
       <c r="D369" s="2">
-        <v>0.3861471330747008</v>
+        <v>0.3592404929950135</v>
       </c>
       <c r="E369" s="2">
         <v>1957.393301951263</v>
@@ -9316,7 +9316,7 @@
         <v>5</v>
       </c>
       <c r="D370" s="2">
-        <v>0.3879356150282547</v>
+        <v>0.3804038919915911</v>
       </c>
       <c r="E370" s="2">
         <v>1929.049679722268</v>
@@ -9340,7 +9340,7 @@
         <v>6</v>
       </c>
       <c r="D371" s="2">
-        <v>0.4103535750182346</v>
+        <v>0.3920670429943129</v>
       </c>
       <c r="E371" s="2">
         <v>1891.847522102674</v>
@@ -9364,7 +9364,7 @@
         <v>7</v>
       </c>
       <c r="D372" s="2">
-        <v>0.3855374939739704</v>
+        <v>0.3637482339981943</v>
       </c>
       <c r="E372" s="2">
         <v>2794.33940233296</v>
@@ -9388,7 +9388,7 @@
         <v>8</v>
       </c>
       <c r="D373" s="2">
-        <v>0.3874535040231422</v>
+        <v>0.370848749007564</v>
       </c>
       <c r="E373" s="2">
         <v>2602.451760576937</v>
@@ -9412,7 +9412,7 @@
         <v>9</v>
       </c>
       <c r="D374" s="2">
-        <v>0.3868960350519046</v>
+        <v>0.3734154720004881</v>
       </c>
       <c r="E374" s="2">
         <v>2052.879496798337</v>
@@ -9436,7 +9436,7 @@
         <v>10</v>
       </c>
       <c r="D375" s="2">
-        <v>0.3855931569123641</v>
+        <v>0.4150371549912961</v>
       </c>
       <c r="E375" s="2">
         <v>1925.3277438084</v>
@@ -9460,7 +9460,7 @@
         <v>11</v>
       </c>
       <c r="D376" s="2">
-        <v>0.3828424800885841</v>
+        <v>0.3796417179983109</v>
       </c>
       <c r="E376" s="2">
         <v>2363.22189446734</v>
@@ -9484,7 +9484,7 @@
         <v>12</v>
       </c>
       <c r="D377" s="2">
-        <v>0.3886336029972881</v>
+        <v>0.3988966440083459</v>
       </c>
       <c r="E377" s="2">
         <v>2447.535162410311</v>
@@ -9508,7 +9508,7 @@
         <v>13</v>
       </c>
       <c r="D378" s="2">
-        <v>0.3893687460804358</v>
+        <v>0.3670714030013187</v>
       </c>
       <c r="E378" s="2">
         <v>1974.532148995889</v>
@@ -9532,7 +9532,7 @@
         <v>14</v>
       </c>
       <c r="D379" s="2">
-        <v>0.3883408309193328</v>
+        <v>0.3888604370004032</v>
       </c>
       <c r="E379" s="2">
         <v>2220.200507196992</v>
@@ -9556,7 +9556,7 @@
         <v>15</v>
       </c>
       <c r="D380" s="2">
-        <v>0.390862429048866</v>
+        <v>0.3719725580012891</v>
       </c>
       <c r="E380" s="2">
         <v>2208.057351411535</v>
@@ -9580,7 +9580,7 @@
         <v>16</v>
       </c>
       <c r="D381" s="2">
-        <v>0.3878469869960099</v>
+        <v>0.3814196570019703</v>
       </c>
       <c r="E381" s="2">
         <v>2861.241067203724</v>
@@ -9604,7 +9604,7 @@
         <v>17</v>
       </c>
       <c r="D382" s="2">
-        <v>0.4010459730634466</v>
+        <v>0.3745091099990532</v>
       </c>
       <c r="E382" s="2">
         <v>1958.120948796095</v>
@@ -9628,7 +9628,7 @@
         <v>18</v>
       </c>
       <c r="D383" s="2">
-        <v>0.3827989000128582</v>
+        <v>0.3710584799991921</v>
       </c>
       <c r="E383" s="2">
         <v>2064.014725784071</v>
@@ -9652,7 +9652,7 @@
         <v>19</v>
       </c>
       <c r="D384" s="2">
-        <v>0.4007071770029142</v>
+        <v>0.3689258879894624</v>
       </c>
       <c r="E384" s="2">
         <v>2924.729042821605</v>
@@ -9676,7 +9676,7 @@
         <v>20</v>
       </c>
       <c r="D385" s="2">
-        <v>0.5159979200689122</v>
+        <v>0.379660573991714</v>
       </c>
       <c r="E385" s="2">
         <v>2462.071835767862</v>
@@ -9700,7 +9700,7 @@
         <v>21</v>
       </c>
       <c r="D386" s="2">
-        <v>0.3863250879803672</v>
+        <v>0.3884120579896262</v>
       </c>
       <c r="E386" s="2">
         <v>2054.180701308586</v>
@@ -9724,7 +9724,7 @@
         <v>22</v>
       </c>
       <c r="D387" s="2">
-        <v>0.3801068901084363</v>
+        <v>0.3610543310060166</v>
       </c>
       <c r="E387" s="2">
         <v>2575.227727061365</v>
@@ -9748,7 +9748,7 @@
         <v>23</v>
       </c>
       <c r="D388" s="2">
-        <v>0.3889195310184732</v>
+        <v>0.4123725149984239</v>
       </c>
       <c r="E388" s="2">
         <v>1646.053630543269</v>
@@ -9772,7 +9772,7 @@
         <v>24</v>
       </c>
       <c r="D389" s="2">
-        <v>0.4065643680514768</v>
+        <v>0.360310385003686</v>
       </c>
       <c r="E389" s="2">
         <v>2616.950332556246</v>
@@ -9796,7 +9796,7 @@
         <v>25</v>
       </c>
       <c r="D390" s="2">
-        <v>0.3896543950540945</v>
+        <v>0.3798398560029455</v>
       </c>
       <c r="E390" s="2">
         <v>2921.500693814433</v>
@@ -9820,7 +9820,7 @@
         <v>26</v>
       </c>
       <c r="D391" s="2">
-        <v>0.3913286159513518</v>
+        <v>0.3774267130065709</v>
       </c>
       <c r="E391" s="2">
         <v>2449.482774238275</v>
@@ -9844,7 +9844,7 @@
         <v>27</v>
       </c>
       <c r="D392" s="2">
-        <v>0.3875890659401193</v>
+        <v>0.3717559819924645</v>
       </c>
       <c r="E392" s="2">
         <v>2513.635308570146</v>
@@ -9868,7 +9868,7 @@
         <v>28</v>
       </c>
       <c r="D393" s="2">
-        <v>0.4213824020698667</v>
+        <v>0.3599701890052529</v>
       </c>
       <c r="E393" s="2">
         <v>2628.465131147235</v>
@@ -9892,7 +9892,7 @@
         <v>29</v>
       </c>
       <c r="D394" s="2">
-        <v>0.3840823629871011</v>
+        <v>0.3814698030037107</v>
       </c>
       <c r="E394" s="2">
         <v>2045.42717516419</v>
@@ -9916,7 +9916,7 @@
         <v>30</v>
       </c>
       <c r="D395" s="2">
-        <v>0.3872036139946431</v>
+        <v>0.3618305420095567</v>
       </c>
       <c r="E395" s="2">
         <v>2484.71790718807</v>
@@ -9940,7 +9940,7 @@
         <v>31</v>
       </c>
       <c r="D396" s="2">
-        <v>0.3858859989559278</v>
+        <v>0.3621489459910663</v>
       </c>
       <c r="E396" s="2">
         <v>2386.756028005147</v>
@@ -9964,7 +9964,7 @@
         <v>1</v>
       </c>
       <c r="D397" s="2">
-        <v>0.3856344330124557</v>
+        <v>0.3736312789988006</v>
       </c>
       <c r="E397" s="2">
         <v>3105.278406368193</v>
@@ -9988,7 +9988,7 @@
         <v>2</v>
       </c>
       <c r="D398" s="2">
-        <v>0.4166956020053476</v>
+        <v>0.358687143001589</v>
       </c>
       <c r="E398" s="2">
         <v>1911.607552698302</v>
@@ -10012,7 +10012,7 @@
         <v>3</v>
       </c>
       <c r="D399" s="2">
-        <v>0.3835981580195948</v>
+        <v>0.3557722619880224</v>
       </c>
       <c r="E399" s="2">
         <v>2011.801926986374</v>
@@ -10036,7 +10036,7 @@
         <v>4</v>
       </c>
       <c r="D400" s="2">
-        <v>0.3894782569259405</v>
+        <v>0.3630651189887431</v>
       </c>
       <c r="E400" s="2">
         <v>2666.885073440669</v>
@@ -10060,7 +10060,7 @@
         <v>5</v>
       </c>
       <c r="D401" s="2">
-        <v>0.385579677997157</v>
+        <v>0.3674500100023579</v>
       </c>
       <c r="E401" s="2">
         <v>2166.229585204542</v>
@@ -10084,7 +10084,7 @@
         <v>6</v>
       </c>
       <c r="D402" s="2">
-        <v>0.3850002100225538</v>
+        <v>0.3610677389951888</v>
       </c>
       <c r="E402" s="2">
         <v>2092.148574489012</v>
@@ -10108,7 +10108,7 @@
         <v>7</v>
       </c>
       <c r="D403" s="2">
-        <v>0.3848254679469392</v>
+        <v>0.3632971300103236</v>
       </c>
       <c r="E403" s="2">
         <v>1989.355385964532</v>
@@ -10132,7 +10132,7 @@
         <v>8</v>
       </c>
       <c r="D404" s="2">
-        <v>0.3860627670073882</v>
+        <v>0.3618151070113527</v>
       </c>
       <c r="E404" s="2">
         <v>2163.614345411667</v>
@@ -10156,7 +10156,7 @@
         <v>9</v>
       </c>
       <c r="D405" s="2">
-        <v>0.3854663961101323</v>
+        <v>0.3889920159999747</v>
       </c>
       <c r="E405" s="2">
         <v>2004.797372912014</v>
@@ -10180,7 +10180,7 @@
         <v>10</v>
       </c>
       <c r="D406" s="2">
-        <v>0.3891719359671697</v>
+        <v>0.3631146359984996</v>
       </c>
       <c r="E406" s="2">
         <v>1988.570969542856</v>
@@ -10204,7 +10204,7 @@
         <v>11</v>
       </c>
       <c r="D407" s="2">
-        <v>0.405216371989809</v>
+        <v>0.3622773839888396</v>
       </c>
       <c r="E407" s="2">
         <v>1687.391591314908</v>
@@ -10228,7 +10228,7 @@
         <v>12</v>
       </c>
       <c r="D408" s="2">
-        <v>0.3857265540864319</v>
+        <v>0.3686863339971751</v>
       </c>
       <c r="E408" s="2">
         <v>1812.624549284745</v>
@@ -10252,7 +10252,7 @@
         <v>13</v>
       </c>
       <c r="D409" s="2">
-        <v>0.4052228679647669</v>
+        <v>0.3576979850040516</v>
       </c>
       <c r="E409" s="2">
         <v>1771.24881947355</v>
@@ -10276,7 +10276,7 @@
         <v>14</v>
       </c>
       <c r="D410" s="2">
-        <v>0.3841151889646426</v>
+        <v>0.3591133110021474</v>
       </c>
       <c r="E410" s="2">
         <v>2507.32809934201</v>
@@ -10300,7 +10300,7 @@
         <v>15</v>
       </c>
       <c r="D411" s="2">
-        <v>0.3723878849996254</v>
+        <v>0.3617162110022036</v>
       </c>
       <c r="E411" s="2">
         <v>2467.079631139003</v>
@@ -10324,7 +10324,7 @@
         <v>16</v>
       </c>
       <c r="D412" s="2">
-        <v>0.3837807209929451</v>
+        <v>0.3634852809918812</v>
       </c>
       <c r="E412" s="2">
         <v>2454.943913213881</v>
@@ -10348,7 +10348,7 @@
         <v>17</v>
       </c>
       <c r="D413" s="2">
-        <v>0.3891087300144136</v>
+        <v>0.352729851991171</v>
       </c>
       <c r="E413" s="2">
         <v>2226.189000106105</v>
@@ -10372,7 +10372,7 @@
         <v>18</v>
       </c>
       <c r="D414" s="2">
-        <v>0.3893901180708781</v>
+        <v>0.3921984110056655</v>
       </c>
       <c r="E414" s="2">
         <v>2139.271055985824</v>
@@ -10396,7 +10396,7 @@
         <v>19</v>
       </c>
       <c r="D415" s="2">
-        <v>0.3870220289099962</v>
+        <v>0.3695687029976398</v>
       </c>
       <c r="E415" s="2">
         <v>1994.319927094142</v>
@@ -10420,7 +10420,7 @@
         <v>20</v>
       </c>
       <c r="D416" s="2">
-        <v>0.3870447271037847</v>
+        <v>0.3666111499915132</v>
       </c>
       <c r="E416" s="2">
         <v>2224.923101035529</v>
@@ -10444,7 +10444,7 @@
         <v>21</v>
       </c>
       <c r="D417" s="2">
-        <v>0.3865703699411824</v>
+        <v>0.3591385930049</v>
       </c>
       <c r="E417" s="2">
         <v>2038.993921146112</v>
@@ -10468,7 +10468,7 @@
         <v>22</v>
       </c>
       <c r="D418" s="2">
-        <v>0.4044573440914974</v>
+        <v>0.3620044450071873</v>
       </c>
       <c r="E418" s="2">
         <v>1792.255481862485</v>
@@ -10492,7 +10492,7 @@
         <v>23</v>
       </c>
       <c r="D419" s="2">
-        <v>0.3895301489392295</v>
+        <v>0.3788066280103521</v>
       </c>
       <c r="E419" s="2">
         <v>2527.926338973391</v>
@@ -10516,7 +10516,7 @@
         <v>24</v>
       </c>
       <c r="D420" s="2">
-        <v>0.3835888690082356</v>
+        <v>0.3696154259960167</v>
       </c>
       <c r="E420" s="2">
         <v>1893.856963774813</v>
@@ -10540,7 +10540,7 @@
         <v>25</v>
       </c>
       <c r="D421" s="2">
-        <v>0.3884525069734082</v>
+        <v>0.3617676189896883</v>
       </c>
       <c r="E421" s="2">
         <v>1737.201649272558</v>
@@ -10564,7 +10564,7 @@
         <v>26</v>
       </c>
       <c r="D422" s="2">
-        <v>0.4195821890607476</v>
+        <v>0.3739873329905095</v>
       </c>
       <c r="E422" s="2">
         <v>2181.758990259251</v>
@@ -10588,7 +10588,7 @@
         <v>27</v>
       </c>
       <c r="D423" s="2">
-        <v>0.3914114478975534</v>
+        <v>0.3738724559952971</v>
       </c>
       <c r="E423" s="2">
         <v>2211.941829674329</v>
@@ -10612,7 +10612,7 @@
         <v>28</v>
       </c>
       <c r="D424" s="2">
-        <v>0.380954897031188</v>
+        <v>0.374725492001744</v>
       </c>
       <c r="E424" s="2">
         <v>1682.626120111182</v>
@@ -10636,7 +10636,7 @@
         <v>1</v>
       </c>
       <c r="D425" s="2">
-        <v>0.3884742970112711</v>
+        <v>0.3782887060078792</v>
       </c>
       <c r="E425" s="2">
         <v>1683.217770503193</v>
@@ -10660,7 +10660,7 @@
         <v>2</v>
       </c>
       <c r="D426" s="2">
-        <v>0.3837704550242051</v>
+        <v>0.3660223369952291</v>
       </c>
       <c r="E426" s="2">
         <v>2233.233197864206</v>
@@ -10684,7 +10684,7 @@
         <v>3</v>
       </c>
       <c r="D427" s="2">
-        <v>0.3831337169976905</v>
+        <v>0.3863472299999557</v>
       </c>
       <c r="E427" s="2">
         <v>1960.442864197815</v>
@@ -10708,7 +10708,7 @@
         <v>4</v>
       </c>
       <c r="D428" s="2">
-        <v>0.3847914569778368</v>
+        <v>0.3764625760086346</v>
       </c>
       <c r="E428" s="2">
         <v>1936.512470660005</v>
@@ -10732,7 +10732,7 @@
         <v>5</v>
       </c>
       <c r="D429" s="2">
-        <v>0.38780634093564</v>
+        <v>0.3901242270076182</v>
       </c>
       <c r="E429" s="2">
         <v>2496.493827221376</v>
@@ -10756,7 +10756,7 @@
         <v>6</v>
       </c>
       <c r="D430" s="2">
-        <v>0.3867609649896622</v>
+        <v>0.3973500379943289</v>
       </c>
       <c r="E430" s="2">
         <v>1897.539009068802</v>
@@ -10780,7 +10780,7 @@
         <v>7</v>
       </c>
       <c r="D431" s="2">
-        <v>0.4087852339725941</v>
+        <v>0.386809646995971</v>
       </c>
       <c r="E431" s="2">
         <v>1751.859819335068</v>
@@ -10804,7 +10804,7 @@
         <v>8</v>
       </c>
       <c r="D432" s="2">
-        <v>0.3872617930173874</v>
+        <v>0.3603566319943639</v>
       </c>
       <c r="E432" s="2">
         <v>2294.192651908066</v>
@@ -10828,7 +10828,7 @@
         <v>9</v>
       </c>
       <c r="D433" s="2">
-        <v>0.3888560469495133</v>
+        <v>0.3645205469947541</v>
       </c>
       <c r="E433" s="2">
         <v>2452.40604866782</v>
@@ -10852,7 +10852,7 @@
         <v>10</v>
       </c>
       <c r="D434" s="2">
-        <v>0.387757592019625</v>
+        <v>0.4616200219898019</v>
       </c>
       <c r="E434" s="2">
         <v>1998.463837148076</v>
@@ -10876,7 +10876,7 @@
         <v>11</v>
       </c>
       <c r="D435" s="2">
-        <v>0.3859293019631878</v>
+        <v>0.4100323099992238</v>
       </c>
       <c r="E435" s="2">
         <v>2254.556799926816</v>
@@ -10900,7 +10900,7 @@
         <v>12</v>
       </c>
       <c r="D436" s="2">
-        <v>0.3876172120217234</v>
+        <v>0.385997535995557</v>
       </c>
       <c r="E436" s="2">
         <v>2073.970884952444</v>
@@ -10924,7 +10924,7 @@
         <v>13</v>
       </c>
       <c r="D437" s="2">
-        <v>0.387839165981859</v>
+        <v>0.3781094239966478</v>
       </c>
       <c r="E437" s="2">
         <v>2562.582975121857</v>
@@ -10948,7 +10948,7 @@
         <v>14</v>
       </c>
       <c r="D438" s="2">
-        <v>0.3836192509625107</v>
+        <v>0.3744256649952149</v>
       </c>
       <c r="E438" s="2">
         <v>2255.35928431974</v>
@@ -10972,7 +10972,7 @@
         <v>15</v>
       </c>
       <c r="D439" s="2">
-        <v>0.3832818500231951</v>
+        <v>0.3585658410011092</v>
       </c>
       <c r="E439" s="2">
         <v>2399.513718187653</v>
@@ -10996,7 +10996,7 @@
         <v>16</v>
       </c>
       <c r="D440" s="2">
-        <v>0.387170301983133</v>
+        <v>0.3637751339992974</v>
       </c>
       <c r="E440" s="2">
         <v>2278.338662123207</v>
@@ -11020,7 +11020,7 @@
         <v>17</v>
       </c>
       <c r="D441" s="2">
-        <v>0.3778859570156783</v>
+        <v>0.3701729809981771</v>
       </c>
       <c r="E441" s="2">
         <v>2621.839627268885</v>
@@ -11044,7 +11044,7 @@
         <v>18</v>
       </c>
       <c r="D442" s="2">
-        <v>0.3883276319829747</v>
+        <v>0.3631858869921416</v>
       </c>
       <c r="E442" s="2">
         <v>2420.639512634204</v>
@@ -11068,7 +11068,7 @@
         <v>19</v>
       </c>
       <c r="D443" s="2">
-        <v>0.3853446649154648</v>
+        <v>0.3709241209871834</v>
       </c>
       <c r="E443" s="2">
         <v>2193.358903931784</v>
@@ -11092,7 +11092,7 @@
         <v>20</v>
       </c>
       <c r="D444" s="2">
-        <v>0.3872176540317014</v>
+        <v>0.3635050599987153</v>
       </c>
       <c r="E444" s="2">
         <v>2129.343535096184</v>
@@ -11116,7 +11116,7 @@
         <v>21</v>
       </c>
       <c r="D445" s="2">
-        <v>0.3878082969458774</v>
+        <v>0.3583494030026486</v>
       </c>
       <c r="E445" s="2">
         <v>2603.081626913807</v>
@@ -11140,7 +11140,7 @@
         <v>22</v>
       </c>
       <c r="D446" s="2">
-        <v>0.3844841589452699</v>
+        <v>0.3583987110032467</v>
       </c>
       <c r="E446" s="2">
         <v>2878.031504565235</v>
@@ -11164,7 +11164,7 @@
         <v>23</v>
       </c>
       <c r="D447" s="2">
-        <v>0.3877017199993134</v>
+        <v>0.7773550119891297</v>
       </c>
       <c r="E447" s="2">
         <v>2178.624570211023</v>
@@ -11188,7 +11188,7 @@
         <v>24</v>
       </c>
       <c r="D448" s="2">
-        <v>0.3842670930316672</v>
+        <v>0.7339993079949636</v>
       </c>
       <c r="E448" s="2">
         <v>1767.608635181344</v>
@@ -11212,7 +11212,7 @@
         <v>25</v>
       </c>
       <c r="D449" s="2">
-        <v>0.3849634059006348</v>
+        <v>0.3581238170008874</v>
       </c>
       <c r="E449" s="2">
         <v>1964.77961112694</v>
@@ -11236,7 +11236,7 @@
         <v>26</v>
       </c>
       <c r="D450" s="2">
-        <v>0.3850088720209897</v>
+        <v>0.3607964889961295</v>
       </c>
       <c r="E450" s="2">
         <v>2182.042962346913</v>
@@ -11260,7 +11260,7 @@
         <v>27</v>
       </c>
       <c r="D451" s="2">
-        <v>0.4163005839800462</v>
+        <v>0.3603219899960095</v>
       </c>
       <c r="E451" s="2">
         <v>2075.906016081974</v>
@@ -11284,7 +11284,7 @@
         <v>28</v>
       </c>
       <c r="D452" s="2">
-        <v>0.3845338850514963</v>
+        <v>0.3593373719922965</v>
       </c>
       <c r="E452" s="2">
         <v>2400.526589905438</v>
@@ -11308,7 +11308,7 @@
         <v>29</v>
       </c>
       <c r="D453" s="2">
-        <v>0.3865435509942472</v>
+        <v>0.3771721980010625</v>
       </c>
       <c r="E453" s="2">
         <v>2237.169583108663</v>
@@ -11332,7 +11332,7 @@
         <v>30</v>
       </c>
       <c r="D454" s="2">
-        <v>0.404830783023499</v>
+        <v>0.3752109320048476</v>
       </c>
       <c r="E454" s="2">
         <v>1945.755064011042</v>
@@ -11356,7 +11356,7 @@
         <v>31</v>
       </c>
       <c r="D455" s="2">
-        <v>0.3904651779448614</v>
+        <v>0.3589497390057659</v>
       </c>
       <c r="E455" s="2">
         <v>2473.611835262086</v>
@@ -11380,7 +11380,7 @@
         <v>1</v>
       </c>
       <c r="D456" s="2">
-        <v>0.3881212529959157</v>
+        <v>0.3584626680094516</v>
       </c>
       <c r="E456" s="2">
         <v>2680.807814518193</v>
@@ -11404,7 +11404,7 @@
         <v>2</v>
       </c>
       <c r="D457" s="2">
-        <v>0.3877753319684416</v>
+        <v>0.3774507979978807</v>
       </c>
       <c r="E457" s="2">
         <v>2338.62786402672</v>
@@ -11428,7 +11428,7 @@
         <v>3</v>
       </c>
       <c r="D458" s="2">
-        <v>0.3941674340749159</v>
+        <v>0.3579899850010406</v>
       </c>
       <c r="E458" s="2">
         <v>2001.199305827597</v>
@@ -11452,7 +11452,7 @@
         <v>4</v>
       </c>
       <c r="D459" s="2">
-        <v>0.3893067999742925</v>
+        <v>0.3606084600032773</v>
       </c>
       <c r="E459" s="2">
         <v>2533.179526462673</v>
@@ -11476,7 +11476,7 @@
         <v>5</v>
       </c>
       <c r="D460" s="2">
-        <v>0.3833640540251508</v>
+        <v>0.3606444269971689</v>
       </c>
       <c r="E460" s="2">
         <v>2077.226579555136</v>
@@ -11500,7 +11500,7 @@
         <v>6</v>
       </c>
       <c r="D461" s="2">
-        <v>0.3849611709592864</v>
+        <v>0.3576625709974905</v>
       </c>
       <c r="E461" s="2">
         <v>2614.806090076452</v>
@@ -11524,7 +11524,7 @@
         <v>7</v>
       </c>
       <c r="D462" s="2">
-        <v>0.3865098180249333</v>
+        <v>0.3578000879933825</v>
       </c>
       <c r="E462" s="2">
         <v>1788.941936812416</v>
@@ -11548,7 +11548,7 @@
         <v>8</v>
       </c>
       <c r="D463" s="2">
-        <v>0.3820184320211411</v>
+        <v>0.3646225640113698</v>
       </c>
       <c r="E463" s="2">
         <v>2177.280871673228</v>
@@ -11572,7 +11572,7 @@
         <v>9</v>
       </c>
       <c r="D464" s="2">
-        <v>0.3836438349680975</v>
+        <v>0.3597487880033441</v>
       </c>
       <c r="E464" s="2">
         <v>2091.413283591552</v>
@@ -11596,7 +11596,7 @@
         <v>10</v>
       </c>
       <c r="D465" s="2">
-        <v>0.3858924970263615</v>
+        <v>0.3580866450065514</v>
       </c>
       <c r="E465" s="2">
         <v>2158.425700044915</v>
@@ -11620,7 +11620,7 @@
         <v>11</v>
       </c>
       <c r="D466" s="2">
-        <v>0.3843997910153121</v>
+        <v>0.3616154949995689</v>
       </c>
       <c r="E466" s="2">
         <v>1687.346990547035</v>
@@ -11644,7 +11644,7 @@
         <v>12</v>
       </c>
       <c r="D467" s="2">
-        <v>0.4019011759664863</v>
+        <v>0.3642695879971143</v>
       </c>
       <c r="E467" s="2">
         <v>2740.871312682354</v>
@@ -11668,7 +11668,7 @@
         <v>13</v>
       </c>
       <c r="D468" s="2">
-        <v>0.3762298249639571</v>
+        <v>0.3721361159987282</v>
       </c>
       <c r="E468" s="2">
         <v>2033.564021427132</v>
@@ -11692,7 +11692,7 @@
         <v>14</v>
       </c>
       <c r="D469" s="2">
-        <v>0.3826524460455403</v>
+        <v>0.363012592002633</v>
       </c>
       <c r="E469" s="2">
         <v>2151.244720333246</v>
@@ -11716,7 +11716,7 @@
         <v>15</v>
       </c>
       <c r="D470" s="2">
-        <v>0.3797909319400787</v>
+        <v>0.3643570989952423</v>
       </c>
       <c r="E470" s="2">
         <v>2126.750954427531</v>
@@ -11740,7 +11740,7 @@
         <v>16</v>
       </c>
       <c r="D471" s="2">
-        <v>0.3945333990268409</v>
+        <v>0.3703697699966142</v>
       </c>
       <c r="E471" s="2">
         <v>2252.405874893001</v>
@@ -11764,7 +11764,7 @@
         <v>17</v>
       </c>
       <c r="D472" s="2">
-        <v>0.3892728569917381</v>
+        <v>0.3601106340065598</v>
       </c>
       <c r="E472" s="2">
         <v>2252.424747154174</v>
@@ -11788,7 +11788,7 @@
         <v>18</v>
       </c>
       <c r="D473" s="2">
-        <v>0.3908818480558693</v>
+        <v>0.3801025860011578</v>
       </c>
       <c r="E473" s="2">
         <v>1924.025509475847</v>
@@ -11812,7 +11812,7 @@
         <v>19</v>
       </c>
       <c r="D474" s="2">
-        <v>0.6744371670065448</v>
+        <v>0.3611676750006154</v>
       </c>
       <c r="E474" s="2">
         <v>2371.913813685158</v>
@@ -11836,7 +11836,7 @@
         <v>20</v>
       </c>
       <c r="D475" s="2">
-        <v>0.3840828549582511</v>
+        <v>0.3636327089916449</v>
       </c>
       <c r="E475" s="2">
         <v>1802.72925053143</v>
@@ -11860,7 +11860,7 @@
         <v>21</v>
       </c>
       <c r="D476" s="2">
-        <v>0.3806100949877873</v>
+        <v>0.3636361320095602</v>
       </c>
       <c r="E476" s="2">
         <v>2285.892241229538</v>
@@ -11884,7 +11884,7 @@
         <v>22</v>
       </c>
       <c r="D477" s="2">
-        <v>0.3824018579907715</v>
+        <v>0.3597255310014589</v>
       </c>
       <c r="E477" s="2">
         <v>2213.459156037147</v>
@@ -11908,7 +11908,7 @@
         <v>23</v>
       </c>
       <c r="D478" s="2">
-        <v>0.3882848210632801</v>
+        <v>0.3650134630006505</v>
       </c>
       <c r="E478" s="2">
         <v>2326.766275704219</v>
@@ -11932,7 +11932,7 @@
         <v>24</v>
       </c>
       <c r="D479" s="2">
-        <v>0.3831907790154219</v>
+        <v>0.3605678809981328</v>
       </c>
       <c r="E479" s="2">
         <v>2155.970088522078</v>
@@ -11956,7 +11956,7 @@
         <v>25</v>
       </c>
       <c r="D480" s="2">
-        <v>0.3831411220598966</v>
+        <v>0.3573857910087099</v>
       </c>
       <c r="E480" s="2">
         <v>1908.230490468129</v>
@@ -11980,7 +11980,7 @@
         <v>26</v>
       </c>
       <c r="D481" s="2">
-        <v>0.3830980309285223</v>
+        <v>0.3616476909955963</v>
       </c>
       <c r="E481" s="2">
         <v>2303.597589152269</v>
@@ -12004,7 +12004,7 @@
         <v>27</v>
       </c>
       <c r="D482" s="2">
-        <v>0.3867757730185986</v>
+        <v>0.3606118120078463</v>
       </c>
       <c r="E482" s="2">
         <v>1772.943299203067</v>
@@ -12028,7 +12028,7 @@
         <v>28</v>
       </c>
       <c r="D483" s="2">
-        <v>0.381159671000205</v>
+        <v>0.3632162479916587</v>
       </c>
       <c r="E483" s="2">
         <v>2450.471937773571</v>
@@ -12052,7 +12052,7 @@
         <v>29</v>
       </c>
       <c r="D484" s="2">
-        <v>0.3843217099783942</v>
+        <v>0.362066109009902</v>
       </c>
       <c r="E484" s="2">
         <v>2492.355016418449</v>
@@ -12076,7 +12076,7 @@
         <v>30</v>
       </c>
       <c r="D485" s="2">
-        <v>0.3896816350752488</v>
+        <v>0.3647402460046578</v>
       </c>
       <c r="E485" s="2">
         <v>1940.209507773368</v>
@@ -12100,7 +12100,7 @@
         <v>1</v>
       </c>
       <c r="D486" s="2">
-        <v>0.3867102620424703</v>
+        <v>0.3608753209991846</v>
       </c>
       <c r="E486" s="2">
         <v>2005.220081528673</v>
@@ -12124,7 +12124,7 @@
         <v>2</v>
       </c>
       <c r="D487" s="2">
-        <v>0.3859496270306408</v>
+        <v>0.3581466379982885</v>
       </c>
       <c r="E487" s="2">
         <v>2086.203913064406</v>
@@ -12148,7 +12148,7 @@
         <v>3</v>
       </c>
       <c r="D488" s="2">
-        <v>0.3845438730204478</v>
+        <v>0.3933496560057392</v>
       </c>
       <c r="E488" s="2">
         <v>2436.70982797981</v>
@@ -12172,7 +12172,7 @@
         <v>4</v>
       </c>
       <c r="D489" s="2">
-        <v>0.4038717319490388</v>
+        <v>0.4161737270042067</v>
       </c>
       <c r="E489" s="2">
         <v>1827.062700594338</v>
@@ -12196,7 +12196,7 @@
         <v>5</v>
       </c>
       <c r="D490" s="2">
-        <v>0.4275026860414073</v>
+        <v>0.3642343880055705</v>
       </c>
       <c r="E490" s="2">
         <v>2210.373910312375</v>
@@ -12220,7 +12220,7 @@
         <v>6</v>
       </c>
       <c r="D491" s="2">
-        <v>0.3882167959818617</v>
+        <v>0.3608772059960756</v>
       </c>
       <c r="E491" s="2">
         <v>2173.342650414028</v>
@@ -12244,7 +12244,7 @@
         <v>7</v>
       </c>
       <c r="D492" s="2">
-        <v>0.3855501380749047</v>
+        <v>0.3608495500084246</v>
       </c>
       <c r="E492" s="2">
         <v>2338.313195010187</v>
@@ -12268,7 +12268,7 @@
         <v>8</v>
       </c>
       <c r="D493" s="2">
-        <v>0.3822715360438451</v>
+        <v>0.360280277003767</v>
       </c>
       <c r="E493" s="2">
         <v>2303.126058467849</v>
@@ -12292,7 +12292,7 @@
         <v>9</v>
       </c>
       <c r="D494" s="2">
-        <v>0.3949694150360301</v>
+        <v>0.3697232529957546</v>
       </c>
       <c r="E494" s="2">
         <v>2297.970077634458</v>
@@ -12316,7 +12316,7 @@
         <v>10</v>
       </c>
       <c r="D495" s="2">
-        <v>0.3841423589037731</v>
+        <v>0.3607486299879383</v>
       </c>
       <c r="E495" s="2">
         <v>2072.251934614686</v>
@@ -12340,7 +12340,7 @@
         <v>11</v>
       </c>
       <c r="D496" s="2">
-        <v>0.382434403989464</v>
+        <v>0.3632330090040341</v>
       </c>
       <c r="E496" s="2">
         <v>2031.349119676611</v>
@@ -12364,7 +12364,7 @@
         <v>12</v>
       </c>
       <c r="D497" s="2">
-        <v>0.3834271209780127</v>
+        <v>0.3596872570051346</v>
       </c>
       <c r="E497" s="2">
         <v>2181.737700367056</v>
@@ -12388,7 +12388,7 @@
         <v>13</v>
       </c>
       <c r="D498" s="2">
-        <v>0.3843228979967535</v>
+        <v>0.3619568760041147</v>
       </c>
       <c r="E498" s="2">
         <v>2128.782722806048</v>
@@ -12412,7 +12412,7 @@
         <v>14</v>
       </c>
       <c r="D499" s="2">
-        <v>0.382628352032043</v>
+        <v>0.3799946119979722</v>
       </c>
       <c r="E499" s="2">
         <v>1677.112754080203</v>
@@ -12436,7 +12436,7 @@
         <v>15</v>
       </c>
       <c r="D500" s="2">
-        <v>0.380971311009489</v>
+        <v>0.3635522519907681</v>
       </c>
       <c r="E500" s="2">
         <v>2375.313524151718</v>
@@ -12460,7 +12460,7 @@
         <v>16</v>
       </c>
       <c r="D501" s="2">
-        <v>0.3841266449308023</v>
+        <v>0.3703830399899743</v>
       </c>
       <c r="E501" s="2">
         <v>1974.292343636168</v>
@@ -12484,7 +12484,7 @@
         <v>17</v>
       </c>
       <c r="D502" s="2">
-        <v>0.3873511910205707</v>
+        <v>0.4164498080062913</v>
       </c>
       <c r="E502" s="2">
         <v>2202.712458943724</v>
@@ -12508,7 +12508,7 @@
         <v>18</v>
       </c>
       <c r="D503" s="2">
-        <v>0.3826115910196677</v>
+        <v>0.413904665998416</v>
       </c>
       <c r="E503" s="2">
         <v>1695.200600415448</v>
@@ -12532,7 +12532,7 @@
         <v>19</v>
       </c>
       <c r="D504" s="2">
-        <v>0.3860608139075339</v>
+        <v>0.3867486439994536</v>
       </c>
       <c r="E504" s="2">
         <v>2451.927995287889</v>
@@ -12556,7 +12556,7 @@
         <v>20</v>
       </c>
       <c r="D505" s="2">
-        <v>0.3868265469791368</v>
+        <v>0.3741323769936571</v>
       </c>
       <c r="E505" s="2">
         <v>2742.32728672341</v>
@@ -12580,7 +12580,7 @@
         <v>21</v>
       </c>
       <c r="D506" s="2">
-        <v>0.3840882329968736</v>
+        <v>0.3826111999951536</v>
       </c>
       <c r="E506" s="2">
         <v>1834.68648411814</v>
@@ -12604,7 +12604,7 @@
         <v>22</v>
       </c>
       <c r="D507" s="2">
-        <v>0.3867284910520539</v>
+        <v>0.3757670040067751</v>
       </c>
       <c r="E507" s="2">
         <v>1982.050202010844</v>
@@ -12628,7 +12628,7 @@
         <v>23</v>
       </c>
       <c r="D508" s="2">
-        <v>0.3891618120251223</v>
+        <v>0.3886159800022142</v>
       </c>
       <c r="E508" s="2">
         <v>2154.38612365002</v>
@@ -12652,7 +12652,7 @@
         <v>24</v>
       </c>
       <c r="D509" s="2">
-        <v>0.3866136040305719</v>
+        <v>0.3640818550047697</v>
       </c>
       <c r="E509" s="2">
         <v>2074.942607263144</v>
@@ -12676,7 +12676,7 @@
         <v>25</v>
       </c>
       <c r="D510" s="2">
-        <v>0.3839735549408942</v>
+        <v>0.5734581210126635</v>
       </c>
       <c r="E510" s="2">
         <v>2018.877417867809</v>
@@ -12700,7 +12700,7 @@
         <v>26</v>
       </c>
       <c r="D511" s="2">
-        <v>0.4042780649615452</v>
+        <v>0.3760762579913717</v>
       </c>
       <c r="E511" s="2">
         <v>2176.689894957955</v>
@@ -12724,7 +12724,7 @@
         <v>27</v>
       </c>
       <c r="D512" s="2">
-        <v>0.3937858960125595</v>
+        <v>0.3825301150063751</v>
       </c>
       <c r="E512" s="2">
         <v>1840.198032304612</v>
@@ -12748,7 +12748,7 @@
         <v>28</v>
       </c>
       <c r="D513" s="2">
-        <v>0.3851183139486238</v>
+        <v>0.3642906090099132</v>
       </c>
       <c r="E513" s="2">
         <v>2173.758086818704</v>
@@ -12772,7 +12772,7 @@
         <v>29</v>
       </c>
       <c r="D514" s="2">
-        <v>0.3882019909797236</v>
+        <v>0.3593682940118015</v>
       </c>
       <c r="E514" s="2">
         <v>2216.55834202456</v>
@@ -12796,7 +12796,7 @@
         <v>30</v>
       </c>
       <c r="D515" s="2">
-        <v>0.3930135270347819</v>
+        <v>0.3603487899963511</v>
       </c>
       <c r="E515" s="2">
         <v>2222.727119393626</v>
@@ -12820,7 +12820,7 @@
         <v>31</v>
       </c>
       <c r="D516" s="2">
-        <v>0.3851196410832927</v>
+        <v>0.3591831459925743</v>
       </c>
       <c r="E516" s="2">
         <v>1624.681193749283</v>
@@ -12844,7 +12844,7 @@
         <v>1</v>
       </c>
       <c r="D517" s="2">
-        <v>0.3831434979801998</v>
+        <v>0.3626101679983549</v>
       </c>
       <c r="E517" s="2">
         <v>2352.635328713841</v>
@@ -12868,7 +12868,7 @@
         <v>2</v>
       </c>
       <c r="D518" s="2">
-        <v>0.3888889440568164</v>
+        <v>0.373880321989418</v>
       </c>
       <c r="E518" s="2">
         <v>1772.558504688921</v>
@@ -12892,7 +12892,7 @@
         <v>3</v>
       </c>
       <c r="D519" s="2">
-        <v>0.385335588012822</v>
+        <v>0.4026837499986868</v>
       </c>
       <c r="E519" s="2">
         <v>1820.291662149601</v>
@@ -12916,7 +12916,7 @@
         <v>4</v>
       </c>
       <c r="D520" s="2">
-        <v>0.3812522810185328</v>
+        <v>0.398311361001106</v>
       </c>
       <c r="E520" s="2">
         <v>2355.103305700303</v>
@@ -12940,7 +12940,7 @@
         <v>5</v>
       </c>
       <c r="D521" s="2">
-        <v>0.3847431290196255</v>
+        <v>0.3748197520035319</v>
       </c>
       <c r="E521" s="2">
         <v>2508.311108655002</v>
@@ -12964,7 +12964,7 @@
         <v>6</v>
       </c>
       <c r="D522" s="2">
-        <v>0.3916819440200925</v>
+        <v>0.3619302669976605</v>
       </c>
       <c r="E522" s="2">
         <v>1873.710800900977</v>
@@ -12988,7 +12988,7 @@
         <v>7</v>
       </c>
       <c r="D523" s="2">
-        <v>0.3825353940483183</v>
+        <v>0.3557962820050307</v>
       </c>
       <c r="E523" s="2">
         <v>2097.377808237355</v>
@@ -13012,7 +13012,7 @@
         <v>8</v>
       </c>
       <c r="D524" s="2">
-        <v>0.3843819140456617</v>
+        <v>0.3642672129935818</v>
       </c>
       <c r="E524" s="2">
         <v>1922.852687891714</v>
@@ -13036,7 +13036,7 @@
         <v>9</v>
       </c>
       <c r="D525" s="2">
-        <v>0.5344117779750377</v>
+        <v>0.3582412010000553</v>
       </c>
       <c r="E525" s="2">
         <v>2358.327551728115</v>
@@ -13060,7 +13060,7 @@
         <v>10</v>
       </c>
       <c r="D526" s="2">
-        <v>0.3852135069901124</v>
+        <v>0.3675426109984983</v>
       </c>
       <c r="E526" s="2">
         <v>2763.824556972131</v>
@@ -13084,7 +13084,7 @@
         <v>11</v>
       </c>
       <c r="D527" s="2">
-        <v>0.3882441050373018</v>
+        <v>0.3474613309954293</v>
       </c>
       <c r="E527" s="2">
         <v>2515.784781042937</v>
@@ -13108,7 +13108,7 @@
         <v>12</v>
       </c>
       <c r="D528" s="2">
-        <v>0.383355114958249</v>
+        <v>0.3728596669971012</v>
       </c>
       <c r="E528" s="2">
         <v>2330.883971012533</v>
@@ -13132,7 +13132,7 @@
         <v>13</v>
       </c>
       <c r="D529" s="2">
-        <v>0.388382041011937</v>
+        <v>0.3618173349968856</v>
       </c>
       <c r="E529" s="2">
         <v>2012.8900403809</v>
@@ -13156,7 +13156,7 @@
         <v>14</v>
       </c>
       <c r="D530" s="2">
-        <v>0.3961714450269938</v>
+        <v>0.3635507150029298</v>
       </c>
       <c r="E530" s="2">
         <v>2214.722256504378</v>
@@ -13180,7 +13180,7 @@
         <v>15</v>
       </c>
       <c r="D531" s="2">
-        <v>0.3812549359863624</v>
+        <v>0.3589295529964147</v>
       </c>
       <c r="E531" s="2">
         <v>2761.621244380339</v>
@@ -13204,7 +13204,7 @@
         <v>16</v>
       </c>
       <c r="D532" s="2">
-        <v>0.3820764690171927</v>
+        <v>0.3652060140011599</v>
       </c>
       <c r="E532" s="2">
         <v>1662.79406743745</v>
@@ -13228,7 +13228,7 @@
         <v>17</v>
       </c>
       <c r="D533" s="2">
-        <v>0.3892437299946323</v>
+        <v>0.3604412589920685</v>
       </c>
       <c r="E533" s="2">
         <v>2085.447517447846</v>
@@ -13252,7 +13252,7 @@
         <v>18</v>
       </c>
       <c r="D534" s="2">
-        <v>0.3813863560790196</v>
+        <v>0.3593079509882955</v>
       </c>
       <c r="E534" s="2">
         <v>2615.58332638977</v>
@@ -13276,7 +13276,7 @@
         <v>19</v>
       </c>
       <c r="D535" s="2">
-        <v>0.411947741988115</v>
+        <v>0.3581395830115071</v>
       </c>
       <c r="E535" s="2">
         <v>2133.456259208296</v>
@@ -13300,7 +13300,7 @@
         <v>20</v>
       </c>
       <c r="D536" s="2">
-        <v>0.3883389990078285</v>
+        <v>0.3589369560068008</v>
       </c>
       <c r="E536" s="2">
         <v>2196.360926231524</v>
@@ -13324,7 +13324,7 @@
         <v>21</v>
       </c>
       <c r="D537" s="2">
-        <v>0.381194922956638</v>
+        <v>0.373090700013563</v>
       </c>
       <c r="E537" s="2">
         <v>2286.352332836394</v>
@@ -13348,7 +13348,7 @@
         <v>22</v>
       </c>
       <c r="D538" s="2">
-        <v>0.3816893249750137</v>
+        <v>0.3620756750024157</v>
       </c>
       <c r="E538" s="2">
         <v>2547.355627351468</v>
@@ -13372,7 +13372,7 @@
         <v>23</v>
       </c>
       <c r="D539" s="2">
-        <v>0.3869629969121888</v>
+        <v>0.3584093079989543</v>
       </c>
       <c r="E539" s="2">
         <v>2254.841000764881</v>
@@ -13396,7 +13396,7 @@
         <v>24</v>
       </c>
       <c r="D540" s="2">
-        <v>0.4022792039904743</v>
+        <v>0.3618658729974413</v>
       </c>
       <c r="E540" s="2">
         <v>2836.17440653855</v>
@@ -13420,7 +13420,7 @@
         <v>25</v>
       </c>
       <c r="D541" s="2">
-        <v>0.3885064070345834</v>
+        <v>0.363608543004375</v>
       </c>
       <c r="E541" s="2">
         <v>1508.463386125732</v>
@@ -13444,7 +13444,7 @@
         <v>26</v>
       </c>
       <c r="D542" s="2">
-        <v>0.3866290190489963</v>
+        <v>0.3623428870050702</v>
       </c>
       <c r="E542" s="2">
         <v>2108.067650522278</v>
@@ -13468,7 +13468,7 @@
         <v>27</v>
       </c>
       <c r="D543" s="2">
-        <v>0.3911425450351089</v>
+        <v>0.3595043430104852</v>
       </c>
       <c r="E543" s="2">
         <v>2419.177889822883</v>
@@ -13492,7 +13492,7 @@
         <v>28</v>
       </c>
       <c r="D544" s="2">
-        <v>0.3830277529777959</v>
+        <v>0.3796989749971544</v>
       </c>
       <c r="E544" s="2">
         <v>2091.567187464033</v>
@@ -13516,7 +13516,7 @@
         <v>29</v>
       </c>
       <c r="D545" s="2">
-        <v>0.3840323420008644</v>
+        <v>0.3624285809928551</v>
       </c>
       <c r="E545" s="2">
         <v>1626.437804311405</v>
@@ -13540,7 +13540,7 @@
         <v>30</v>
       </c>
       <c r="D546" s="2">
-        <v>0.3832169509259984</v>
+        <v>0.3623667730134912</v>
       </c>
       <c r="E546" s="2">
         <v>1977.748380989204</v>
@@ -13564,7 +13564,7 @@
         <v>1</v>
       </c>
       <c r="D547" s="2">
-        <v>0.3863460939610377</v>
+        <v>0.3608569510106463</v>
       </c>
       <c r="E547" s="2">
         <v>2046.577425670003</v>
@@ -13588,7 +13588,7 @@
         <v>2</v>
       </c>
       <c r="D548" s="2">
-        <v>0.3866757430369034</v>
+        <v>0.3597177769988775</v>
       </c>
       <c r="E548" s="2">
         <v>2489.815935428408</v>
@@ -13612,7 +13612,7 @@
         <v>3</v>
       </c>
       <c r="D549" s="2">
-        <v>0.3970853610662743</v>
+        <v>0.3591075769945746</v>
       </c>
       <c r="E549" s="2">
         <v>1978.991100844814</v>
@@ -13636,7 +13636,7 @@
         <v>4</v>
       </c>
       <c r="D550" s="2">
-        <v>0.38502917799633</v>
+        <v>0.3580600340064848</v>
       </c>
       <c r="E550" s="2">
         <v>1790.399229257609</v>
@@ -13660,7 +13660,7 @@
         <v>5</v>
       </c>
       <c r="D551" s="2">
-        <v>0.3846659370465204</v>
+        <v>0.3636344539991114</v>
       </c>
       <c r="E551" s="2">
         <v>1596.002870457472</v>
@@ -13684,7 +13684,7 @@
         <v>6</v>
       </c>
       <c r="D552" s="2">
-        <v>0.3825590529013425</v>
+        <v>0.3595357719896128</v>
       </c>
       <c r="E552" s="2">
         <v>2327.270245252881</v>
@@ -13708,7 +13708,7 @@
         <v>7</v>
       </c>
       <c r="D553" s="2">
-        <v>0.3835764219984412</v>
+        <v>0.3574380310019478</v>
       </c>
       <c r="E553" s="2">
         <v>2647.62307345825</v>
@@ -13732,7 +13732,7 @@
         <v>8</v>
       </c>
       <c r="D554" s="2">
-        <v>0.3824119670316577</v>
+        <v>0.3574486470024567</v>
       </c>
       <c r="E554" s="2">
         <v>1957.436792224215</v>
@@ -13756,7 +13756,7 @@
         <v>9</v>
       </c>
       <c r="D555" s="2">
-        <v>0.3870904570212588</v>
+        <v>0.3642764310061466</v>
       </c>
       <c r="E555" s="2">
         <v>2404.126746163444</v>
@@ -13780,7 +13780,7 @@
         <v>10</v>
       </c>
       <c r="D556" s="2">
-        <v>0.3891673799371347</v>
+        <v>0.3637011519895168</v>
       </c>
       <c r="E556" s="2">
         <v>2386.089539968864</v>
@@ -13804,7 +13804,7 @@
         <v>11</v>
       </c>
       <c r="D557" s="2">
-        <v>0.3937034650007263</v>
+        <v>0.3608399799995823</v>
       </c>
       <c r="E557" s="2">
         <v>2157.177990245329</v>
@@ -13828,7 +13828,7 @@
         <v>12</v>
       </c>
       <c r="D558" s="2">
-        <v>0.404995171003975</v>
+        <v>0.3604987379949307</v>
       </c>
       <c r="E558" s="2">
         <v>2152.108668756034</v>
@@ -13852,7 +13852,7 @@
         <v>13</v>
       </c>
       <c r="D559" s="2">
-        <v>0.3914907010039315</v>
+        <v>0.356844033987727</v>
       </c>
       <c r="E559" s="2">
         <v>2128.976555804647</v>
@@ -13876,7 +13876,7 @@
         <v>14</v>
       </c>
       <c r="D560" s="2">
-        <v>0.389078123960644</v>
+        <v>0.3652824189921375</v>
       </c>
       <c r="E560" s="2">
         <v>1900.353956368338</v>
@@ -13900,7 +13900,7 @@
         <v>15</v>
       </c>
       <c r="D561" s="2">
-        <v>0.3917914349585772</v>
+        <v>0.3639277160109486</v>
       </c>
       <c r="E561" s="2">
         <v>2613.432805816006</v>
@@ -13924,7 +13924,7 @@
         <v>16</v>
       </c>
       <c r="D562" s="2">
-        <v>0.3854854479432106</v>
+        <v>0.3621141579933465</v>
       </c>
       <c r="E562" s="2">
         <v>2487.502702933235</v>
@@ -13948,7 +13948,7 @@
         <v>17</v>
       </c>
       <c r="D563" s="2">
-        <v>0.3837169409962371</v>
+        <v>0.3619128059945069</v>
       </c>
       <c r="E563" s="2">
         <v>2489.833542444558</v>
@@ -13972,7 +13972,7 @@
         <v>18</v>
       </c>
       <c r="D564" s="2">
-        <v>0.3887315740576014</v>
+        <v>0.360457253002096</v>
       </c>
       <c r="E564" s="2">
         <v>2287.395640825169</v>
@@ -13996,7 +13996,7 @@
         <v>19</v>
       </c>
       <c r="D565" s="2">
-        <v>0.3921125630149618</v>
+        <v>0.3885374090023106</v>
       </c>
       <c r="E565" s="2">
         <v>2207.99519329207</v>
@@ -14020,7 +14020,7 @@
         <v>20</v>
       </c>
       <c r="D566" s="2">
-        <v>0.3892275140387937</v>
+        <v>0.3951428889995441</v>
       </c>
       <c r="E566" s="2">
         <v>2394.813887481044</v>
@@ -14044,7 +14044,7 @@
         <v>21</v>
       </c>
       <c r="D567" s="2">
-        <v>0.3849127539433539</v>
+        <v>0.3964329199952772</v>
       </c>
       <c r="E567" s="2">
         <v>2590.77446502592</v>
@@ -14068,7 +14068,7 @@
         <v>22</v>
       </c>
       <c r="D568" s="2">
-        <v>0.3885444710031152</v>
+        <v>0.3667254020110704</v>
       </c>
       <c r="E568" s="2">
         <v>2074.067202624127</v>
@@ -14092,7 +14092,7 @@
         <v>23</v>
       </c>
       <c r="D569" s="2">
-        <v>0.3825613571098074</v>
+        <v>0.3684959380043438</v>
       </c>
       <c r="E569" s="2">
         <v>2493.48487271669</v>
@@ -14116,7 +14116,7 @@
         <v>24</v>
       </c>
       <c r="D570" s="2">
-        <v>0.3820670249406248</v>
+        <v>0.3840163980057696</v>
       </c>
       <c r="E570" s="2">
         <v>2473.270658067452</v>
@@ -14140,7 +14140,7 @@
         <v>25</v>
       </c>
       <c r="D571" s="2">
-        <v>0.3860675710020587</v>
+        <v>0.4142373170034261</v>
       </c>
       <c r="E571" s="2">
         <v>2342.798690523809</v>
@@ -14164,7 +14164,7 @@
         <v>26</v>
       </c>
       <c r="D572" s="2">
-        <v>0.3848386539611965</v>
+        <v>0.3906035109976074</v>
       </c>
       <c r="E572" s="2">
         <v>1991.072920330166</v>
@@ -14188,7 +14188,7 @@
         <v>27</v>
       </c>
       <c r="D573" s="2">
-        <v>0.3788930439623073</v>
+        <v>0.4014576220070012</v>
       </c>
       <c r="E573" s="2">
         <v>2687.229244491341</v>
@@ -14212,7 +14212,7 @@
         <v>28</v>
       </c>
       <c r="D574" s="2">
-        <v>0.3916071261046454</v>
+        <v>0.4072996030008653</v>
       </c>
       <c r="E574" s="2">
         <v>1859.092355265138</v>
@@ -14236,7 +14236,7 @@
         <v>29</v>
       </c>
       <c r="D575" s="2">
-        <v>0.388794711092487</v>
+        <v>0.3822242119931616</v>
       </c>
       <c r="E575" s="2">
         <v>2231.450577075297</v>
@@ -14260,7 +14260,7 @@
         <v>30</v>
       </c>
       <c r="D576" s="2">
-        <v>0.3937205760739744</v>
+        <v>0.3770244879997335</v>
       </c>
       <c r="E576" s="2">
         <v>2490.747036568571</v>
@@ -14284,7 +14284,7 @@
         <v>31</v>
       </c>
       <c r="D577" s="2">
-        <v>0.3851804540026933</v>
+        <v>0.384051807996002</v>
       </c>
       <c r="E577" s="2">
         <v>2474.473297782563</v>
@@ -14308,7 +14308,7 @@
         <v>1</v>
       </c>
       <c r="D578" s="2">
-        <v>0.389304966898635</v>
+        <v>0.4112291310011642</v>
       </c>
       <c r="E578" s="2">
         <v>2301.518643917839</v>
@@ -14332,7 +14332,7 @@
         <v>2</v>
       </c>
       <c r="D579" s="2">
-        <v>0.3888679740484804</v>
+        <v>0.3852822639892111</v>
       </c>
       <c r="E579" s="2">
         <v>2591.066825600688</v>
@@ -14356,7 +14356,7 @@
         <v>3</v>
       </c>
       <c r="D580" s="2">
-        <v>0.3853387830313295</v>
+        <v>0.3723948050028412</v>
       </c>
       <c r="E580" s="2">
         <v>2151.984465630095</v>
@@ -14380,7 +14380,7 @@
         <v>4</v>
       </c>
       <c r="D581" s="2">
-        <v>0.3822132009081542</v>
+        <v>0.3660642879985971</v>
       </c>
       <c r="E581" s="2">
         <v>2289.876019554797</v>
@@ -14404,7 +14404,7 @@
         <v>5</v>
       </c>
       <c r="D582" s="2">
-        <v>0.3876495329895988</v>
+        <v>0.3596989890065743</v>
       </c>
       <c r="E582" s="2">
         <v>2908.241676124568</v>
@@ -14428,7 +14428,7 @@
         <v>6</v>
       </c>
       <c r="D583" s="2">
-        <v>0.3821274369256571</v>
+        <v>0.3843864149966976</v>
       </c>
       <c r="E583" s="2">
         <v>1977.852055168919</v>
@@ -14452,7 +14452,7 @@
         <v>7</v>
       </c>
       <c r="D584" s="2">
-        <v>0.384017467033118</v>
+        <v>0.3728886500030058</v>
       </c>
       <c r="E584" s="2">
         <v>3034.304251241752</v>
@@ -14476,7 +14476,7 @@
         <v>8</v>
       </c>
       <c r="D585" s="2">
-        <v>0.3830658870283514</v>
+        <v>0.376098466993426</v>
       </c>
       <c r="E585" s="2">
         <v>2170.045239559243</v>
@@ -14500,7 +14500,7 @@
         <v>9</v>
       </c>
       <c r="D586" s="2">
-        <v>0.3895373969571665</v>
+        <v>0.3732337340043159</v>
       </c>
       <c r="E586" s="2">
         <v>2434.508099127636</v>
@@ -14524,7 +14524,7 @@
         <v>10</v>
       </c>
       <c r="D587" s="2">
-        <v>0.4096446071052924</v>
+        <v>0.3685564890038222</v>
       </c>
       <c r="E587" s="2">
         <v>1742.125048717342</v>
@@ -14548,7 +14548,7 @@
         <v>11</v>
       </c>
       <c r="D588" s="2">
-        <v>0.4074336600024253</v>
+        <v>0.4395459769875742</v>
       </c>
       <c r="E588" s="2">
         <v>2262.978982226093</v>
@@ -14572,7 +14572,7 @@
         <v>12</v>
       </c>
       <c r="D589" s="2">
-        <v>0.3831749090459198</v>
+        <v>0.3751700020075077</v>
       </c>
       <c r="E589" s="2">
         <v>1827.416755865211</v>
@@ -14596,7 +14596,7 @@
         <v>13</v>
       </c>
       <c r="D590" s="2">
-        <v>0.3894452770473436</v>
+        <v>0.3703743090009084</v>
       </c>
       <c r="E590" s="2">
         <v>2094.541392896308</v>
@@ -14620,7 +14620,7 @@
         <v>14</v>
       </c>
       <c r="D591" s="2">
-        <v>0.3871969650499523</v>
+        <v>0.3628687180025736</v>
       </c>
       <c r="E591" s="2">
         <v>2132.120880115576</v>
@@ -14644,7 +14644,7 @@
         <v>15</v>
       </c>
       <c r="D592" s="2">
-        <v>0.3858882200438529</v>
+        <v>0.3595106980064884</v>
       </c>
       <c r="E592" s="2">
         <v>1706.722863988275</v>
@@ -14668,7 +14668,7 @@
         <v>16</v>
       </c>
       <c r="D593" s="2">
-        <v>0.382849310990423</v>
+        <v>0.3639590039965697</v>
       </c>
       <c r="E593" s="2">
         <v>1927.662266081701</v>
@@ -14692,7 +14692,7 @@
         <v>17</v>
       </c>
       <c r="D594" s="2">
-        <v>0.3853362689260393</v>
+        <v>0.3680695590010146</v>
       </c>
       <c r="E594" s="2">
         <v>2136.437030087858</v>
@@ -14716,7 +14716,7 @@
         <v>18</v>
       </c>
       <c r="D595" s="2">
-        <v>0.3880418279441074</v>
+        <v>0.3734801319951657</v>
       </c>
       <c r="E595" s="2">
         <v>2291.067374903104</v>
@@ -14740,7 +14740,7 @@
         <v>19</v>
       </c>
       <c r="D596" s="2">
-        <v>0.3856652179965749</v>
+        <v>0.3839733060012804</v>
       </c>
       <c r="E596" s="2">
         <v>1989.855084532628</v>
@@ -14764,7 +14764,7 @@
         <v>20</v>
       </c>
       <c r="D597" s="2">
-        <v>0.3924824399873614</v>
+        <v>0.3896425699931569</v>
       </c>
       <c r="E597" s="2">
         <v>1828.895662138805</v>
@@ -14788,7 +14788,7 @@
         <v>21</v>
       </c>
       <c r="D598" s="2">
-        <v>0.3868236669804901</v>
+        <v>0.3644231660000514</v>
       </c>
       <c r="E598" s="2">
         <v>2925.231400437443</v>
@@ -14812,7 +14812,7 @@
         <v>22</v>
       </c>
       <c r="D599" s="2">
-        <v>0.3883142080157995</v>
+        <v>0.405108694001683</v>
       </c>
       <c r="E599" s="2">
         <v>1470.406479418252</v>
@@ -14836,7 +14836,7 @@
         <v>23</v>
       </c>
       <c r="D600" s="2">
-        <v>0.407420948962681</v>
+        <v>0.4001624230004381</v>
       </c>
       <c r="E600" s="2">
         <v>2026.962023220685</v>
@@ -14860,7 +14860,7 @@
         <v>24</v>
       </c>
       <c r="D601" s="2">
-        <v>0.3850375610636547</v>
+        <v>0.4069721889973152</v>
       </c>
       <c r="E601" s="2">
         <v>2239.351199817958</v>
@@ -14884,7 +14884,7 @@
         <v>25</v>
       </c>
       <c r="D602" s="2">
-        <v>0.382116402965039</v>
+        <v>0.369032385002356</v>
       </c>
       <c r="E602" s="2">
         <v>2013.204892291385</v>
@@ -14908,7 +14908,7 @@
         <v>26</v>
       </c>
       <c r="D603" s="2">
-        <v>0.3890598269645125</v>
+        <v>0.3692940789915156</v>
       </c>
       <c r="E603" s="2">
         <v>1599.809383623278</v>
@@ -14932,7 +14932,7 @@
         <v>27</v>
       </c>
       <c r="D604" s="2">
-        <v>0.3910090810386464</v>
+        <v>0.4010449320048792</v>
       </c>
       <c r="E604" s="2">
         <v>2338.223375066059</v>
@@ -14956,7 +14956,7 @@
         <v>28</v>
       </c>
       <c r="D605" s="2">
-        <v>0.3889589769532904</v>
+        <v>0.4071657180029433</v>
       </c>
       <c r="E605" s="2">
         <v>1751.431239594558</v>
@@ -14980,7 +14980,7 @@
         <v>29</v>
       </c>
       <c r="D606" s="2">
-        <v>0.383133074035868</v>
+        <v>0.4257892780005932</v>
       </c>
       <c r="E606" s="2">
         <v>2004.246526083771</v>
@@ -15004,7 +15004,7 @@
         <v>30</v>
       </c>
       <c r="D607" s="2">
-        <v>0.3884761680383235</v>
+        <v>0.3767067110020434</v>
       </c>
       <c r="E607" s="2">
         <v>2231.749643289461</v>
@@ -15028,7 +15028,7 @@
         <v>31</v>
       </c>
       <c r="D608" s="2">
-        <v>0.3913533260347322</v>
+        <v>0.3842665679985657</v>
       </c>
       <c r="E608" s="2">
         <v>2406.821086533567</v>
@@ -15052,7 +15052,7 @@
         <v>1</v>
       </c>
       <c r="D609" s="2">
-        <v>0.3833249269519001</v>
+        <v>0.3721199809951941</v>
       </c>
       <c r="E609" s="2">
         <v>2327.957608823107</v>
@@ -15076,7 +15076,7 @@
         <v>2</v>
       </c>
       <c r="D610" s="2">
-        <v>0.3873062669299543</v>
+        <v>0.3661057030112715</v>
       </c>
       <c r="E610" s="2">
         <v>2171.153844100806</v>
@@ -15100,7 +15100,7 @@
         <v>3</v>
       </c>
       <c r="D611" s="2">
-        <v>0.3851396678946912</v>
+        <v>0.3756838909903308</v>
       </c>
       <c r="E611" s="2">
         <v>1906.662052394822</v>
@@ -15124,7 +15124,7 @@
         <v>4</v>
       </c>
       <c r="D612" s="2">
-        <v>0.3812940990319476</v>
+        <v>0.3747261630051071</v>
       </c>
       <c r="E612" s="2">
         <v>2423.659351483436</v>
@@ -15148,7 +15148,7 @@
         <v>5</v>
       </c>
       <c r="D613" s="2">
-        <v>0.3832722670631483</v>
+        <v>0.377128759995685</v>
       </c>
       <c r="E613" s="2">
         <v>1804.152132028261</v>
@@ -15172,7 +15172,7 @@
         <v>6</v>
       </c>
       <c r="D614" s="2">
-        <v>0.3818191610043868</v>
+        <v>2.821226268992177</v>
       </c>
       <c r="E614" s="2">
         <v>1613.410991212589</v>
@@ -15196,7 +15196,7 @@
         <v>7</v>
       </c>
       <c r="D615" s="2">
-        <v>0.3852472919970751</v>
+        <v>0.9849670999974478</v>
       </c>
       <c r="E615" s="2">
         <v>2460.321962390806</v>
@@ -15220,7 +15220,7 @@
         <v>8</v>
       </c>
       <c r="D616" s="2">
-        <v>0.3822744529461488</v>
+        <v>0.3819131390046095</v>
       </c>
       <c r="E616" s="2">
         <v>2099.104281430785</v>
@@ -15244,7 +15244,7 @@
         <v>9</v>
       </c>
       <c r="D617" s="2">
-        <v>0.386026157066226</v>
+        <v>0.3670060220028972</v>
       </c>
       <c r="E617" s="2">
         <v>2292.592426568115</v>
@@ -15268,7 +15268,7 @@
         <v>10</v>
       </c>
       <c r="D618" s="2">
-        <v>0.3819682719185948</v>
+        <v>0.3627841400011675</v>
       </c>
       <c r="E618" s="2">
         <v>2379.813822934559</v>
@@ -15292,7 +15292,7 @@
         <v>11</v>
       </c>
       <c r="D619" s="2">
-        <v>0.3839402940357104</v>
+        <v>0.3826126659987494</v>
       </c>
       <c r="E619" s="2">
         <v>2192.39904122184</v>
@@ -15316,7 +15316,7 @@
         <v>12</v>
       </c>
       <c r="D620" s="2">
-        <v>0.385862938943319</v>
+        <v>0.3672448070137762</v>
       </c>
       <c r="E620" s="2">
         <v>2336.315711300592</v>
@@ -15340,7 +15340,7 @@
         <v>13</v>
       </c>
       <c r="D621" s="2">
-        <v>0.3815350501099601</v>
+        <v>0.3620122590073152</v>
       </c>
       <c r="E621" s="2">
         <v>2192.78378301397</v>
@@ -15364,7 +15364,7 @@
         <v>14</v>
       </c>
       <c r="D622" s="2">
-        <v>0.3869375779759139</v>
+        <v>0.3604674480011454</v>
       </c>
       <c r="E622" s="2">
         <v>2540.929347956934</v>
@@ -15388,7 +15388,7 @@
         <v>15</v>
       </c>
       <c r="D623" s="2">
-        <v>0.3870683889836073</v>
+        <v>0.3669826249970356</v>
       </c>
       <c r="E623" s="2">
         <v>2440.225800559598</v>
@@ -15412,7 +15412,7 @@
         <v>16</v>
       </c>
       <c r="D624" s="2">
-        <v>0.3883797880262136</v>
+        <v>0.3603251129970886</v>
       </c>
       <c r="E624" s="2">
         <v>2668.359089606316</v>
@@ -15436,7 +15436,7 @@
         <v>17</v>
       </c>
       <c r="D625" s="2">
-        <v>0.3845969360554591</v>
+        <v>0.3602026120061055</v>
       </c>
       <c r="E625" s="2">
         <v>1838.257110859417</v>
@@ -15460,7 +15460,7 @@
         <v>18</v>
       </c>
       <c r="D626" s="2">
-        <v>0.3909983960911632</v>
+        <v>0.3527496110036736</v>
       </c>
       <c r="E626" s="2">
         <v>2512.190926884556</v>
@@ -15484,7 +15484,7 @@
         <v>19</v>
       </c>
       <c r="D627" s="2">
-        <v>0.3882772619836032</v>
+        <v>0.3653040000062902</v>
       </c>
       <c r="E627" s="2">
         <v>2107.773356067431</v>
@@ -15508,7 +15508,7 @@
         <v>20</v>
       </c>
       <c r="D628" s="2">
-        <v>0.3863930989755318</v>
+        <v>0.3632506079884479</v>
       </c>
       <c r="E628" s="2">
         <v>2511.577097266536</v>
@@ -15532,7 +15532,7 @@
         <v>21</v>
       </c>
       <c r="D629" s="2">
-        <v>0.3829107719939202</v>
+        <v>0.3638575240038335</v>
       </c>
       <c r="E629" s="2">
         <v>2477.663078582862</v>
@@ -15556,7 +15556,7 @@
         <v>22</v>
       </c>
       <c r="D630" s="2">
-        <v>0.3859365499811247</v>
+        <v>0.367914163012756</v>
       </c>
       <c r="E630" s="2">
         <v>2356.44793896376</v>
@@ -15580,7 +15580,7 @@
         <v>23</v>
       </c>
       <c r="D631" s="2">
-        <v>0.3822521739639342</v>
+        <v>0.3756045519985491</v>
       </c>
       <c r="E631" s="2">
         <v>2355.119620079797</v>
@@ -15604,7 +15604,7 @@
         <v>24</v>
       </c>
       <c r="D632" s="2">
-        <v>0.380174832069315</v>
+        <v>0.3630111920065247</v>
       </c>
       <c r="E632" s="2">
         <v>2537.324775389102</v>
@@ -15628,7 +15628,7 @@
         <v>25</v>
       </c>
       <c r="D633" s="2">
-        <v>0.3856825400143862</v>
+        <v>0.3691779340006178</v>
       </c>
       <c r="E633" s="2">
         <v>1931.908183783254</v>
@@ -15652,7 +15652,7 @@
         <v>26</v>
       </c>
       <c r="D634" s="2">
-        <v>0.3836253830231726</v>
+        <v>0.3568225219933083</v>
       </c>
       <c r="E634" s="2">
         <v>2380.10626646524</v>
@@ -15676,7 +15676,7 @@
         <v>27</v>
       </c>
       <c r="D635" s="2">
-        <v>0.4058637819252908</v>
+        <v>0.3586835720052477</v>
       </c>
       <c r="E635" s="2">
         <v>2073.741258315457</v>
@@ -15700,7 +15700,7 @@
         <v>28</v>
       </c>
       <c r="D636" s="2">
-        <v>0.3819319549947977</v>
+        <v>0.3640322659921367</v>
       </c>
       <c r="E636" s="2">
         <v>2236.755144708267</v>
@@ -15724,7 +15724,7 @@
         <v>29</v>
       </c>
       <c r="D637" s="2">
-        <v>0.385441521066241</v>
+        <v>0.3579204209963791</v>
       </c>
       <c r="E637" s="2">
         <v>2340.636184569497</v>
@@ -15748,7 +15748,7 @@
         <v>30</v>
       </c>
       <c r="D638" s="2">
-        <v>0.3895992069737986</v>
+        <v>0.3568822359957267</v>
       </c>
       <c r="E638" s="2">
         <v>2044.586371035601</v>
@@ -15772,7 +15772,7 @@
         <v>1</v>
       </c>
       <c r="D639" s="2">
-        <v>0.3820775729836896</v>
+        <v>0.3683485030051088</v>
       </c>
       <c r="E639" s="2">
         <v>2415.899193643458</v>
@@ -15796,7 +15796,7 @@
         <v>2</v>
       </c>
       <c r="D640" s="2">
-        <v>0.3866929259384051</v>
+        <v>0.3619664429861587</v>
       </c>
       <c r="E640" s="2">
         <v>1984.226269238173</v>
@@ -15820,7 +15820,7 @@
         <v>3</v>
       </c>
       <c r="D641" s="2">
-        <v>0.3864791439846158</v>
+        <v>0.3687808880058583</v>
       </c>
       <c r="E641" s="2">
         <v>1883.701960722468</v>
@@ -15844,7 +15844,7 @@
         <v>4</v>
       </c>
       <c r="D642" s="2">
-        <v>0.3912766419816762</v>
+        <v>0.3626871310116258</v>
       </c>
       <c r="E642" s="2">
         <v>2079.25330797704</v>
@@ -15868,7 +15868,7 @@
         <v>5</v>
       </c>
       <c r="D643" s="2">
-        <v>0.3872005280572921</v>
+        <v>0.3787930669932393</v>
       </c>
       <c r="E643" s="2">
         <v>2170.170506875116</v>
@@ -15892,7 +15892,7 @@
         <v>6</v>
       </c>
       <c r="D644" s="2">
-        <v>0.3987316489219666</v>
+        <v>0.3609584289952181</v>
       </c>
       <c r="E644" s="2">
         <v>2713.515501535469</v>
@@ -15916,7 +15916,7 @@
         <v>7</v>
       </c>
       <c r="D645" s="2">
-        <v>0.3835906719323248</v>
+        <v>0.3587088540080003</v>
       </c>
       <c r="E645" s="2">
         <v>1905.791591851349</v>
@@ -15940,7 +15940,7 @@
         <v>8</v>
       </c>
       <c r="D646" s="2">
-        <v>0.3834104130510241</v>
+        <v>0.3810888760053786</v>
       </c>
       <c r="E646" s="2">
         <v>1877.991116075696</v>
@@ -15964,7 +15964,7 @@
         <v>9</v>
       </c>
       <c r="D647" s="2">
-        <v>0.3808527060318738</v>
+        <v>0.3654053379868856</v>
       </c>
       <c r="E647" s="2">
         <v>2003.903832297094</v>
@@ -15988,7 +15988,7 @@
         <v>10</v>
       </c>
       <c r="D648" s="2">
-        <v>0.3814006770262495</v>
+        <v>0.3597679910017177</v>
       </c>
       <c r="E648" s="2">
         <v>2143.159097721894</v>
@@ -16012,7 +16012,7 @@
         <v>11</v>
       </c>
       <c r="D649" s="2">
-        <v>0.3834669149946421</v>
+        <v>0.3633761809905991</v>
       </c>
       <c r="E649" s="2">
         <v>2045.998841138761</v>
@@ -16036,7 +16036,7 @@
         <v>12</v>
       </c>
       <c r="D650" s="2">
-        <v>0.385498650954105</v>
+        <v>0.3622467139939545</v>
       </c>
       <c r="E650" s="2">
         <v>2209.573678863542</v>
@@ -16060,7 +16060,7 @@
         <v>13</v>
       </c>
       <c r="D651" s="2">
-        <v>0.3820689819986001</v>
+        <v>0.3636198559979675</v>
       </c>
       <c r="E651" s="2">
         <v>1864.038793126003</v>
@@ -16084,7 +16084,7 @@
         <v>14</v>
       </c>
       <c r="D652" s="2">
-        <v>0.3835230659460649</v>
+        <v>0.3594421839952702</v>
       </c>
       <c r="E652" s="2">
         <v>2101.798313960515</v>
@@ -16108,7 +16108,7 @@
         <v>15</v>
       </c>
       <c r="D653" s="2">
-        <v>0.3851151550188661</v>
+        <v>0.3637527630053228</v>
       </c>
       <c r="E653" s="2">
         <v>2145.449732074659</v>
@@ -16132,7 +16132,7 @@
         <v>16</v>
       </c>
       <c r="D654" s="2">
-        <v>0.3893461050465703</v>
+        <v>0.3637823059980292</v>
       </c>
       <c r="E654" s="2">
         <v>1637.499617248647</v>
@@ -16156,7 +16156,7 @@
         <v>17</v>
       </c>
       <c r="D655" s="2">
-        <v>0.3844216370489448</v>
+        <v>0.3629464499972528</v>
       </c>
       <c r="E655" s="2">
         <v>2187.991284142877</v>
@@ -16180,7 +16180,7 @@
         <v>18</v>
       </c>
       <c r="D656" s="2">
-        <v>0.3852463859366253</v>
+        <v>0.3814305379928555</v>
       </c>
       <c r="E656" s="2">
         <v>2262.5436513441</v>
@@ -16204,7 +16204,7 @@
         <v>19</v>
       </c>
       <c r="D657" s="2">
-        <v>0.383956638048403</v>
+        <v>0.6620005040022079</v>
       </c>
       <c r="E657" s="2">
         <v>2670.842628405685</v>
@@ -16228,7 +16228,7 @@
         <v>20</v>
       </c>
       <c r="D658" s="2">
-        <v>0.4067894509062171</v>
+        <v>0.3611432980105747</v>
       </c>
       <c r="E658" s="2">
         <v>2300.575516284959</v>
@@ -16252,7 +16252,7 @@
         <v>21</v>
       </c>
       <c r="D659" s="2">
-        <v>0.3903449670178816</v>
+        <v>0.3609249049914069</v>
       </c>
       <c r="E659" s="2">
         <v>1614.671026771617</v>
@@ -16276,7 +16276,7 @@
         <v>22</v>
       </c>
       <c r="D660" s="2">
-        <v>0.3824399069417268</v>
+        <v>0.3760830310056917</v>
       </c>
       <c r="E660" s="2">
         <v>2198.599214065036</v>
@@ -16300,7 +16300,7 @@
         <v>23</v>
       </c>
       <c r="D661" s="2">
-        <v>0.3866806350415573</v>
+        <v>0.3742272189992946</v>
       </c>
       <c r="E661" s="2">
         <v>2119.865375415557</v>
@@ -16324,7 +16324,7 @@
         <v>24</v>
       </c>
       <c r="D662" s="2">
-        <v>0.4028234770521522</v>
+        <v>0.3674547480040928</v>
       </c>
       <c r="E662" s="2">
         <v>2325.228787745462</v>
@@ -16348,7 +16348,7 @@
         <v>25</v>
       </c>
       <c r="D663" s="2">
-        <v>0.389364822069183</v>
+        <v>0.3766730469942559</v>
       </c>
       <c r="E663" s="2">
         <v>2214.048556601009</v>
@@ -16372,7 +16372,7 @@
         <v>26</v>
       </c>
       <c r="D664" s="2">
-        <v>0.381974347983487</v>
+        <v>0.3600498689920641</v>
       </c>
       <c r="E664" s="2">
         <v>2080.515674481825</v>
@@ -16396,7 +16396,7 @@
         <v>27</v>
       </c>
       <c r="D665" s="2">
-        <v>0.3940172620350495</v>
+        <v>0.3628115169994999</v>
       </c>
       <c r="E665" s="2">
         <v>2056.562908057892</v>
@@ -16420,7 +16420,7 @@
         <v>28</v>
       </c>
       <c r="D666" s="2">
-        <v>0.3895480160135776</v>
+        <v>0.3609725370042725</v>
       </c>
       <c r="E666" s="2">
         <v>2319.894559457851</v>
@@ -16444,7 +16444,7 @@
         <v>29</v>
       </c>
       <c r="D667" s="2">
-        <v>0.4023474430432543</v>
+        <v>0.3601246690086555</v>
       </c>
       <c r="E667" s="2">
         <v>1834.099021668695</v>
@@ -16468,7 +16468,7 @@
         <v>30</v>
       </c>
       <c r="D668" s="2">
-        <v>0.3865426300326362</v>
+        <v>0.3696494290052215</v>
       </c>
       <c r="E668" s="2">
         <v>2598.882684802517</v>
@@ -16492,7 +16492,7 @@
         <v>31</v>
       </c>
       <c r="D669" s="2">
-        <v>0.3989369809860364</v>
+        <v>0.3641305320052197</v>
       </c>
       <c r="E669" s="2">
         <v>1956.44274580333</v>
@@ -16516,7 +16516,7 @@
         <v>1</v>
       </c>
       <c r="D670" s="2">
-        <v>0.4009952569613233</v>
+        <v>0.361048174003372</v>
       </c>
       <c r="E670" s="2">
         <v>1582.024710486505</v>
@@ -16540,7 +16540,7 @@
         <v>2</v>
       </c>
       <c r="D671" s="2">
-        <v>0.3831070960732177</v>
+        <v>0.3598726119962521</v>
       </c>
       <c r="E671" s="2">
         <v>2812.885011710088</v>
@@ -16564,7 +16564,7 @@
         <v>3</v>
       </c>
       <c r="D672" s="2">
-        <v>0.3824554110178724</v>
+        <v>0.362840291010798</v>
       </c>
       <c r="E672" s="2">
         <v>2118.263736992478</v>
@@ -16588,7 +16588,7 @@
         <v>4</v>
       </c>
       <c r="D673" s="2">
-        <v>0.3840287830680609</v>
+        <v>0.3719689840072533</v>
       </c>
       <c r="E673" s="2">
         <v>2132.693124401771</v>
@@ -16612,7 +16612,7 @@
         <v>5</v>
       </c>
       <c r="D674" s="2">
-        <v>0.3889971809694543</v>
+        <v>0.3635638429987011</v>
       </c>
       <c r="E674" s="2">
         <v>2027.730663656502</v>
@@ -16636,7 +16636,7 @@
         <v>6</v>
       </c>
       <c r="D675" s="2">
-        <v>0.390214505023323</v>
+        <v>0.3596621120086638</v>
       </c>
       <c r="E675" s="2">
         <v>2168.662063859996</v>
@@ -16660,7 +16660,7 @@
         <v>7</v>
       </c>
       <c r="D676" s="2">
-        <v>0.3802307749865577</v>
+        <v>0.3636910929926671</v>
       </c>
       <c r="E676" s="2">
         <v>2497.4232548469</v>
@@ -16684,7 +16684,7 @@
         <v>8</v>
       </c>
       <c r="D677" s="2">
-        <v>0.3834429589333013</v>
+        <v>0.3695876889978535</v>
       </c>
       <c r="E677" s="2">
         <v>2198.229991667835</v>
@@ -16708,7 +16708,7 @@
         <v>9</v>
       </c>
       <c r="D678" s="2">
-        <v>0.3838210069807246</v>
+        <v>0.3619501699868124</v>
       </c>
       <c r="E678" s="2">
         <v>2812.714786904255</v>
@@ -16732,7 +16732,7 @@
         <v>10</v>
       </c>
       <c r="D679" s="2">
-        <v>0.3923926280112937</v>
+        <v>0.3617283549974672</v>
       </c>
       <c r="E679" s="2">
         <v>2212.068073485781</v>
@@ -16756,7 +16756,7 @@
         <v>11</v>
       </c>
       <c r="D680" s="2">
-        <v>0.3868654340039939</v>
+        <v>0.3589324839995243</v>
       </c>
       <c r="E680" s="2">
         <v>2022.196653077408</v>
@@ -16780,7 +16780,7 @@
         <v>12</v>
       </c>
       <c r="D681" s="2">
-        <v>0.38991020899266</v>
+        <v>0.3663011860044207</v>
       </c>
       <c r="E681" s="2">
         <v>2327.473274297517</v>
@@ -16804,7 +16804,7 @@
         <v>13</v>
       </c>
       <c r="D682" s="2">
-        <v>0.3869394650682807</v>
+        <v>0.3626482280087657</v>
       </c>
       <c r="E682" s="2">
         <v>2018.188565122456</v>
@@ -16828,7 +16828,7 @@
         <v>14</v>
       </c>
       <c r="D683" s="2">
-        <v>0.3875491049839184</v>
+        <v>0.3600149479898391</v>
       </c>
       <c r="E683" s="2">
         <v>2163.289825849976</v>
@@ -16852,7 +16852,7 @@
         <v>15</v>
       </c>
       <c r="D684" s="2">
-        <v>0.4055259639862925</v>
+        <v>0.3563573110004654</v>
       </c>
       <c r="E684" s="2">
         <v>2379.640753035322</v>
@@ -16876,7 +16876,7 @@
         <v>16</v>
       </c>
       <c r="D685" s="2">
-        <v>0.3815032040001824</v>
+        <v>0.3579690989863593</v>
       </c>
       <c r="E685" s="2">
         <v>2065.555943045044</v>
@@ -16900,7 +16900,7 @@
         <v>17</v>
       </c>
       <c r="D686" s="2">
-        <v>0.3811588200042024</v>
+        <v>0.3602832070027944</v>
       </c>
       <c r="E686" s="2">
         <v>2111.66450043257</v>
@@ -16924,7 +16924,7 @@
         <v>18</v>
       </c>
       <c r="D687" s="2">
-        <v>0.3850501349661499</v>
+        <v>0.3622108849958749</v>
       </c>
       <c r="E687" s="2">
         <v>2764.964965474363</v>
@@ -16948,7 +16948,7 @@
         <v>19</v>
       </c>
       <c r="D688" s="2">
-        <v>0.3856154950335622</v>
+        <v>0.3673020069982158</v>
       </c>
       <c r="E688" s="2">
         <v>2456.751293400082</v>
@@ -16972,7 +16972,7 @@
         <v>20</v>
       </c>
       <c r="D689" s="2">
-        <v>0.3860038089333102</v>
+        <v>0.3654106460016919</v>
       </c>
       <c r="E689" s="2">
         <v>2154.130336081528</v>
@@ -16996,7 +16996,7 @@
         <v>21</v>
       </c>
       <c r="D690" s="2">
-        <v>0.3877612809883431</v>
+        <v>0.3714349110086914</v>
       </c>
       <c r="E690" s="2">
         <v>1972.993351422253</v>
@@ -17020,7 +17020,7 @@
         <v>22</v>
       </c>
       <c r="D691" s="2">
-        <v>0.3873320400016382</v>
+        <v>0.3707643679954344</v>
       </c>
       <c r="E691" s="2">
         <v>2403.317186711863</v>
@@ -17044,7 +17044,7 @@
         <v>23</v>
       </c>
       <c r="D692" s="2">
-        <v>0.3956486019305885</v>
+        <v>0.3618319290108047</v>
       </c>
       <c r="E692" s="2">
         <v>2581.255010194272</v>
@@ -17068,7 +17068,7 @@
         <v>24</v>
       </c>
       <c r="D693" s="2">
-        <v>0.3980643920367584</v>
+        <v>0.3636857149977004</v>
       </c>
       <c r="E693" s="2">
         <v>2155.291143622384</v>
@@ -17092,7 +17092,7 @@
         <v>25</v>
       </c>
       <c r="D694" s="2">
-        <v>0.3855242830468342</v>
+        <v>0.3627960120065836</v>
       </c>
       <c r="E694" s="2">
         <v>1743.698134374437</v>
@@ -17116,7 +17116,7 @@
         <v>26</v>
       </c>
       <c r="D695" s="2">
-        <v>0.389777302974835</v>
+        <v>0.3741808440099703</v>
       </c>
       <c r="E695" s="2">
         <v>2089.244998889167</v>
@@ -17140,7 +17140,7 @@
         <v>27</v>
       </c>
       <c r="D696" s="2">
-        <v>0.3889397729653865</v>
+        <v>0.3785465980035951</v>
       </c>
       <c r="E696" s="2">
         <v>2491.300557235433</v>
@@ -17164,7 +17164,7 @@
         <v>28</v>
       </c>
       <c r="D697" s="2">
-        <v>0.3862527919700369</v>
+        <v>0.359702269997797</v>
       </c>
       <c r="E697" s="2">
         <v>2480.77542974682</v>
@@ -17188,7 +17188,7 @@
         <v>29</v>
       </c>
       <c r="D698" s="2">
-        <v>0.3887310200370848</v>
+        <v>0.359114488994237</v>
       </c>
       <c r="E698" s="2">
         <v>1945.692170274769</v>
@@ -17212,7 +17212,7 @@
         <v>30</v>
       </c>
       <c r="D699" s="2">
-        <v>0.3885086469817907</v>
+        <v>0.3647741849999875</v>
       </c>
       <c r="E699" s="2">
         <v>1754.746795973851</v>
@@ -17236,7 +17236,7 @@
         <v>1</v>
       </c>
       <c r="D700" s="2">
-        <v>0.3848006640328094</v>
+        <v>0.3626584260055097</v>
       </c>
       <c r="E700" s="2">
         <v>2199.741667094658</v>
@@ -17260,7 +17260,7 @@
         <v>2</v>
       </c>
       <c r="D701" s="2">
-        <v>0.3841740529751405</v>
+        <v>0.3638385270023718</v>
       </c>
       <c r="E701" s="2">
         <v>2080.169304587154</v>
@@ -17284,7 +17284,7 @@
         <v>3</v>
       </c>
       <c r="D702" s="2">
-        <v>0.3893233379349113</v>
+        <v>0.3593922470026882</v>
       </c>
       <c r="E702" s="2">
         <v>2139.946699132761</v>
@@ -17308,7 +17308,7 @@
         <v>4</v>
       </c>
       <c r="D703" s="2">
-        <v>0.3826867250027135</v>
+        <v>0.3660804889950668</v>
       </c>
       <c r="E703" s="2">
         <v>2589.430543398417</v>
@@ -17332,7 +17332,7 @@
         <v>5</v>
       </c>
       <c r="D704" s="2">
-        <v>0.3791229630587623</v>
+        <v>0.3662639609974576</v>
       </c>
       <c r="E704" s="2">
         <v>2109.122946990047</v>
@@ -17356,7 +17356,7 @@
         <v>6</v>
       </c>
       <c r="D705" s="2">
-        <v>0.3942846830468625</v>
+        <v>3.764433114003623</v>
       </c>
       <c r="E705" s="2">
         <v>2590.979311558054</v>
@@ -17380,7 +17380,7 @@
         <v>7</v>
       </c>
       <c r="D706" s="2">
-        <v>0.3864760029828176</v>
+        <v>0.3606171849969542</v>
       </c>
       <c r="E706" s="2">
         <v>2119.769952723327</v>
@@ -17404,7 +17404,7 @@
         <v>8</v>
       </c>
       <c r="D707" s="2">
-        <v>0.3841343830572441</v>
+        <v>0.3637060379987815</v>
       </c>
       <c r="E707" s="2">
         <v>1694.668386658944</v>
@@ -17428,7 +17428,7 @@
         <v>9</v>
       </c>
       <c r="D708" s="2">
-        <v>0.3910042650531977</v>
+        <v>0.3621835069934605</v>
       </c>
       <c r="E708" s="2">
         <v>2375.687641973687</v>
@@ -17452,7 +17452,7 @@
         <v>10</v>
       </c>
       <c r="D709" s="2">
-        <v>0.3851753599010408</v>
+        <v>0.3772224139975151</v>
       </c>
       <c r="E709" s="2">
         <v>2113.516609620399</v>
@@ -17476,7 +17476,7 @@
         <v>11</v>
       </c>
       <c r="D710" s="2">
-        <v>0.3833900209283456</v>
+        <v>0.3534281150059542</v>
       </c>
       <c r="E710" s="2">
         <v>2090.700046596345</v>
@@ -17500,7 +17500,7 @@
         <v>12</v>
       </c>
       <c r="D711" s="2">
-        <v>0.382150489022024</v>
+        <v>0.3615928620129125</v>
       </c>
       <c r="E711" s="2">
         <v>2098.694639352564</v>
@@ -17524,7 +17524,7 @@
         <v>13</v>
       </c>
       <c r="D712" s="2">
-        <v>0.3814562020124868</v>
+        <v>0.3613503750093514</v>
       </c>
       <c r="E712" s="2">
         <v>2162.012203625968</v>
@@ -17548,7 +17548,7 @@
         <v>14</v>
       </c>
       <c r="D713" s="2">
-        <v>0.3833347070030868</v>
+        <v>0.3669560839916812</v>
       </c>
       <c r="E713" s="2">
         <v>1855.996332842119</v>
@@ -17572,7 +17572,7 @@
         <v>15</v>
       </c>
       <c r="D714" s="2">
-        <v>0.3869599290192127</v>
+        <v>0.3718453650071751</v>
       </c>
       <c r="E714" s="2">
         <v>2152.977546274826</v>
@@ -17596,7 +17596,7 @@
         <v>16</v>
       </c>
       <c r="D715" s="2">
-        <v>0.3851426729233935</v>
+        <v>0.3609445990005042</v>
       </c>
       <c r="E715" s="2">
         <v>2239.217572283549</v>
@@ -17620,7 +17620,7 @@
         <v>17</v>
       </c>
       <c r="D716" s="2">
-        <v>0.4002687049796805</v>
+        <v>0.3574619839928346</v>
       </c>
       <c r="E716" s="2">
         <v>2654.925654383774</v>
@@ -17644,7 +17644,7 @@
         <v>18</v>
       </c>
       <c r="D717" s="2">
-        <v>0.3823301190277562</v>
+        <v>0.3596057500108145</v>
       </c>
       <c r="E717" s="2">
         <v>1916.042287114699</v>
@@ -17668,7 +17668,7 @@
         <v>19</v>
       </c>
       <c r="D718" s="2">
-        <v>0.395810003974475</v>
+        <v>0.3606043349864194</v>
       </c>
       <c r="E718" s="2">
         <v>2366.344453456522</v>
@@ -17692,7 +17692,7 @@
         <v>20</v>
       </c>
       <c r="D719" s="2">
-        <v>0.3865190949290991</v>
+        <v>0.3815475209994474</v>
       </c>
       <c r="E719" s="2">
         <v>1988.034409057532</v>
@@ -17716,7 +17716,7 @@
         <v>21</v>
       </c>
       <c r="D720" s="2">
-        <v>0.3887520419666544</v>
+        <v>0.3623570619965903</v>
       </c>
       <c r="E720" s="2">
         <v>2159.736195700308</v>
@@ -17740,7 +17740,7 @@
         <v>22</v>
       </c>
       <c r="D721" s="2">
-        <v>0.3855767339700833</v>
+        <v>0.3592727479990572</v>
       </c>
       <c r="E721" s="2">
         <v>2013.972667357302</v>
@@ -17764,7 +17764,7 @@
         <v>23</v>
       </c>
       <c r="D722" s="2">
-        <v>0.3890543129527941</v>
+        <v>0.3618984870117856</v>
       </c>
       <c r="E722" s="2">
         <v>1999.500988823738</v>
@@ -17788,7 +17788,7 @@
         <v>24</v>
       </c>
       <c r="D723" s="2">
-        <v>0.388339492958039</v>
+        <v>0.373254892998375</v>
       </c>
       <c r="E723" s="2">
         <v>1860.216024852008</v>
@@ -17812,7 +17812,7 @@
         <v>25</v>
       </c>
       <c r="D724" s="2">
-        <v>0.3831770770484582</v>
+        <v>0.3712297169986414</v>
       </c>
       <c r="E724" s="2">
         <v>2119.819988570566</v>
@@ -17836,7 +17836,7 @@
         <v>26</v>
       </c>
       <c r="D725" s="2">
-        <v>0.3882413669489324</v>
+        <v>0.3695728820021031</v>
       </c>
       <c r="E725" s="2">
         <v>2846.595611672284</v>
@@ -17860,7 +17860,7 @@
         <v>27</v>
       </c>
       <c r="D726" s="2">
-        <v>0.381861557951197</v>
+        <v>0.3748842110071564</v>
       </c>
       <c r="E726" s="2">
         <v>2229.860544574427</v>
@@ -17884,7 +17884,7 @@
         <v>28</v>
       </c>
       <c r="D727" s="2">
-        <v>0.3826757599599659</v>
+        <v>0.5353824730118504</v>
       </c>
       <c r="E727" s="2">
         <v>2351.606247694505</v>
@@ -17908,7 +17908,7 @@
         <v>29</v>
       </c>
       <c r="D728" s="2">
-        <v>0.3829816629877314</v>
+        <v>0.3785288579965709</v>
       </c>
       <c r="E728" s="2">
         <v>1671.37185218673</v>
@@ -17932,7 +17932,7 @@
         <v>30</v>
       </c>
       <c r="D729" s="2">
-        <v>0.3828270359663293</v>
+        <v>0.3817003320000367</v>
       </c>
       <c r="E729" s="2">
         <v>2374.205047790111</v>
